--- a/Q3/orchardPark/Cash_Flow_40501_Accrual.xlsx
+++ b/Q3/orchardPark/Cash_Flow_40501_Accrual.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="472">
   <si>
     <t>Orchard Park Apartments (40501)</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Cash Flow Statement</t>
   </si>
   <si>
-    <t>Period = Oct 2023</t>
+    <t>Period = Nov 2023</t>
   </si>
   <si>
     <t>Book = Accrual ; Tree = ysi_cf</t>
@@ -88,6 +88,12 @@
     <t xml:space="preserve">     Vacancies</t>
   </si>
   <si>
+    <t>50060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Bad Debt</t>
+  </si>
+  <si>
     <t>50125</t>
   </si>
   <si>
@@ -112,6 +118,12 @@
     <t xml:space="preserve">     Furniture/Appliance Rental</t>
   </si>
   <si>
+    <t>53060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Interest Income</t>
+  </si>
+  <si>
     <t>53070</t>
   </si>
   <si>
@@ -142,6 +154,12 @@
     <t xml:space="preserve">     Termination Fees</t>
   </si>
   <si>
+    <t>53210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Utility Income</t>
+  </si>
+  <si>
     <t>53230</t>
   </si>
   <si>
@@ -226,6 +244,12 @@
     <t xml:space="preserve">     Delivery Expense</t>
   </si>
   <si>
+    <t>60120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Travel/Transportation</t>
+  </si>
+  <si>
     <t>60130</t>
   </si>
   <si>
@@ -346,6 +370,12 @@
     <t xml:space="preserve">     Admin. Medical Insurance</t>
   </si>
   <si>
+    <t>61220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Salaries - Temp Staff</t>
+  </si>
+  <si>
     <t>61230</t>
   </si>
   <si>
@@ -454,6 +484,18 @@
     <t>MARKETING AND RETENTION</t>
   </si>
   <si>
+    <t>61810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Activities</t>
+  </si>
+  <si>
+    <t>61860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Marketing Supplies</t>
+  </si>
+  <si>
     <t>61910</t>
   </si>
   <si>
@@ -724,6 +766,12 @@
     <t xml:space="preserve">     T/O Windows and Screens</t>
   </si>
   <si>
+    <t>63560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     T/O Apartment Interiors</t>
+  </si>
+  <si>
     <t>63699</t>
   </si>
   <si>
@@ -790,6 +838,18 @@
     <t>TAXES &amp; INSURANCE EXPENSE</t>
   </si>
   <si>
+    <t>64520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Real Property Taxes</t>
+  </si>
+  <si>
+    <t>64540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Taxes/Licenses &amp; Permits</t>
+  </si>
+  <si>
     <t>64560</t>
   </si>
   <si>
@@ -808,6 +868,12 @@
     <t xml:space="preserve">     Insurance - Flood</t>
   </si>
   <si>
+    <t>64630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Insurance - Crime</t>
+  </si>
+  <si>
     <t>64699</t>
   </si>
   <si>
@@ -856,6 +922,18 @@
     <t>PARTNERSHIPS &amp; OTHER EXPENSES</t>
   </si>
   <si>
+    <t>80310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Housing Service Agreement</t>
+  </si>
+  <si>
+    <t>80350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Asset Management Fees</t>
+  </si>
+  <si>
     <t>80370</t>
   </si>
   <si>
@@ -892,6 +970,12 @@
     <t>REPLACEMENT &amp; EXTRA REPAIRS</t>
   </si>
   <si>
+    <t>80720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Apartment Interiors</t>
+  </si>
+  <si>
     <t>80730</t>
   </si>
   <si>
@@ -1015,12 +1099,24 @@
     <t xml:space="preserve">     Parking Lots</t>
   </si>
   <si>
+    <t>81542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Paving / Sidewalks</t>
+  </si>
+  <si>
     <t>81572</t>
   </si>
   <si>
     <t xml:space="preserve">     Plumbing</t>
   </si>
   <si>
+    <t>81602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Pool/Spa - Deck / Concrete</t>
+  </si>
+  <si>
     <t>81720</t>
   </si>
   <si>
@@ -1060,6 +1156,12 @@
     <t xml:space="preserve">     Cash - Security Deposits</t>
   </si>
   <si>
+    <t>10100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Cash - Petty Cash</t>
+  </si>
+  <si>
     <t>11025</t>
   </si>
   <si>
@@ -1114,6 +1216,12 @@
     <t xml:space="preserve">     A/R - Sec 8</t>
   </si>
   <si>
+    <t>12035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Subsidy Suspense Receivable</t>
+  </si>
+  <si>
     <t>12070</t>
   </si>
   <si>
@@ -1126,6 +1234,12 @@
     <t xml:space="preserve">     Prepaid Insurance</t>
   </si>
   <si>
+    <t>12220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Prepaid Property Tax</t>
+  </si>
+  <si>
     <t>12230</t>
   </si>
   <si>
@@ -1162,6 +1276,12 @@
     <t xml:space="preserve">     Maint Equip</t>
   </si>
   <si>
+    <t>14020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Deposits - Gas</t>
+  </si>
+  <si>
     <t>14260</t>
   </si>
   <si>
@@ -1238,6 +1358,12 @@
   </si>
   <si>
     <t xml:space="preserve">     Mortgage Payable 1st</t>
+  </si>
+  <si>
+    <t>20620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Notes Payable</t>
   </si>
   <si>
     <t>20650</t>
@@ -1922,7 +2048,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F248"/>
+  <dimension ref="A1:F269"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -2072,13 +2198,13 @@
         <v>266290</v>
       </c>
       <c r="D13" s="13">
-        <v>96.46</v>
+        <v>102.47</v>
       </c>
       <c r="E13" s="13">
-        <v>952264.23</v>
+        <v>1218554.23</v>
       </c>
       <c r="F13" s="13">
-        <v>101.75</v>
+        <v>101.91</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -2089,16 +2215,16 @@
         <v>18</v>
       </c>
       <c r="C14" s="15">
-        <v>-93</v>
+        <v>151</v>
       </c>
       <c r="D14" s="15">
-        <v>-0.03</v>
+        <v>0.06</v>
       </c>
       <c r="E14" s="15">
-        <v>-10068</v>
+        <v>-9917</v>
       </c>
       <c r="F14" s="15">
-        <v>-1.08</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -2109,16 +2235,16 @@
         <v>20</v>
       </c>
       <c r="C15" s="14">
-        <v>266197</v>
+        <v>266441</v>
       </c>
       <c r="D15" s="14">
-        <v>96.43</v>
+        <v>102.52</v>
       </c>
       <c r="E15" s="14">
-        <v>942196.23</v>
+        <v>1208637.23</v>
       </c>
       <c r="F15" s="14">
-        <v>100.68</v>
+        <v>101.08</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -2129,16 +2255,16 @@
         <v>22</v>
       </c>
       <c r="C16" s="13">
-        <v>-4858.67</v>
+        <v>-4992.84</v>
       </c>
       <c r="D16" s="13">
-        <v>-1.76</v>
+        <v>-1.92</v>
       </c>
       <c r="E16" s="13">
-        <v>-18133.91</v>
+        <v>-23126.75</v>
       </c>
       <c r="F16" s="13">
-        <v>-1.94</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -2148,78 +2274,78 @@
       <c r="B17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="13">
+        <v>-6864.99</v>
+      </c>
+      <c r="D17" s="13">
+        <v>-2.64</v>
+      </c>
+      <c r="E17" s="13">
+        <v>-6864.99</v>
+      </c>
+      <c r="F17" s="13">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="15">
         <v>1561</v>
       </c>
-      <c r="D17" s="15">
-        <v>0.57</v>
-      </c>
-      <c r="E17" s="15">
-        <v>-23612</v>
-      </c>
-      <c r="F17" s="15">
-        <v>-2.52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="14">
-        <v>262899.33</v>
-      </c>
-      <c r="D18" s="14">
-        <v>95.23</v>
-      </c>
-      <c r="E18" s="14">
-        <v>900450.32</v>
-      </c>
-      <c r="F18" s="14">
-        <v>96.22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="8" t="s">
+      <c r="D18" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="E18" s="15">
+        <v>-22051</v>
+      </c>
+      <c r="F18" s="15">
+        <v>-1.84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B19" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="C19" s="14">
+        <v>256144.17</v>
+      </c>
+      <c r="D19" s="14">
+        <v>98.56</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1156594.49</v>
+      </c>
+      <c r="F19" s="14">
+        <v>96.73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="13">
-        <v>33.22</v>
-      </c>
-      <c r="D21" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="E21" s="13">
-        <v>33.22</v>
-      </c>
-      <c r="F21" s="13">
-        <v>0</v>
-      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="11" t="s">
@@ -2229,16 +2355,16 @@
         <v>32</v>
       </c>
       <c r="C22" s="13">
-        <v>1400</v>
+        <v>182</v>
       </c>
       <c r="D22" s="13">
-        <v>0.51</v>
+        <v>0.07</v>
       </c>
       <c r="E22" s="13">
-        <v>3713</v>
+        <v>215.22</v>
       </c>
       <c r="F22" s="13">
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -2249,16 +2375,16 @@
         <v>34</v>
       </c>
       <c r="C23" s="13">
-        <v>0</v>
+        <v>1351.36</v>
       </c>
       <c r="D23" s="13">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="E23" s="13">
-        <v>0.18</v>
+        <v>1351.36</v>
       </c>
       <c r="F23" s="13">
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -2269,16 +2395,16 @@
         <v>36</v>
       </c>
       <c r="C24" s="13">
-        <v>0</v>
+        <v>828.27</v>
       </c>
       <c r="D24" s="13">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="E24" s="13">
-        <v>35</v>
+        <v>4541.27</v>
       </c>
       <c r="F24" s="13">
-        <v>0</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -2289,16 +2415,16 @@
         <v>38</v>
       </c>
       <c r="C25" s="13">
-        <v>4914.73</v>
+        <v>0</v>
       </c>
       <c r="D25" s="13">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="E25" s="13">
-        <v>18710.83</v>
+        <v>0.18</v>
       </c>
       <c r="F25" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -2309,16 +2435,16 @@
         <v>40</v>
       </c>
       <c r="C26" s="13">
-        <v>1375</v>
+        <v>75</v>
       </c>
       <c r="D26" s="13">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="E26" s="13">
-        <v>2397</v>
+        <v>110</v>
       </c>
       <c r="F26" s="13">
-        <v>0.26</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -2329,16 +2455,16 @@
         <v>42</v>
       </c>
       <c r="C27" s="13">
-        <v>180</v>
+        <v>4893.95</v>
       </c>
       <c r="D27" s="13">
-        <v>0.07</v>
+        <v>1.88</v>
       </c>
       <c r="E27" s="13">
-        <v>663.33</v>
+        <v>23604.78</v>
       </c>
       <c r="F27" s="13">
-        <v>0.07</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -2349,16 +2475,16 @@
         <v>44</v>
       </c>
       <c r="C28" s="13">
-        <v>5195.8</v>
+        <v>1388.63</v>
       </c>
       <c r="D28" s="13">
-        <v>1.88</v>
+        <v>0.53</v>
       </c>
       <c r="E28" s="13">
-        <v>9601.18</v>
+        <v>3785.63</v>
       </c>
       <c r="F28" s="13">
-        <v>1.03</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -2369,13 +2495,13 @@
         <v>46</v>
       </c>
       <c r="C29" s="13">
-        <v>-52</v>
+        <v>125.61</v>
       </c>
       <c r="D29" s="13">
-        <v>-0.02</v>
+        <v>0.05</v>
       </c>
       <c r="E29" s="13">
-        <v>52.09</v>
+        <v>125.61</v>
       </c>
       <c r="F29" s="13">
         <v>0.01</v>
@@ -2388,158 +2514,158 @@
       <c r="B30" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="15">
-        <v>116.89</v>
-      </c>
-      <c r="D30" s="15">
-        <v>0.04</v>
-      </c>
-      <c r="E30" s="15">
-        <v>206.89</v>
-      </c>
-      <c r="F30" s="15">
-        <v>0.02</v>
+      <c r="C30" s="13">
+        <v>214</v>
+      </c>
+      <c r="D30" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="E30" s="13">
+        <v>877.33</v>
+      </c>
+      <c r="F30" s="13">
+        <v>0.07</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="16">
-        <v>13163.64</v>
-      </c>
-      <c r="D31" s="16">
-        <v>4.77</v>
-      </c>
-      <c r="E31" s="16">
-        <v>35412.72</v>
-      </c>
-      <c r="F31" s="16">
-        <v>3.78</v>
+      <c r="C31" s="13">
+        <v>-5158.52</v>
+      </c>
+      <c r="D31" s="13">
+        <v>-1.98</v>
+      </c>
+      <c r="E31" s="13">
+        <v>4442.66</v>
+      </c>
+      <c r="F31" s="13">
+        <v>0.37</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="14">
-        <v>276062.97</v>
-      </c>
-      <c r="D32" s="14">
-        <v>100</v>
-      </c>
-      <c r="E32" s="14">
-        <v>935863.04</v>
-      </c>
-      <c r="F32" s="14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+      <c r="C32" s="13">
+        <v>-103.29</v>
+      </c>
+      <c r="D32" s="13">
+        <v>-0.04</v>
+      </c>
+      <c r="E32" s="13">
+        <v>-51.2</v>
+      </c>
+      <c r="F32" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A33" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="15">
+        <v>-61.89</v>
+      </c>
+      <c r="D33" s="15">
+        <v>-0.02</v>
+      </c>
+      <c r="E33" s="15">
+        <v>145</v>
+      </c>
+      <c r="F33" s="15">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="34" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-    </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="C34" s="16">
+        <v>3735.12</v>
+      </c>
+      <c r="D34" s="16">
+        <v>1.44</v>
+      </c>
+      <c r="E34" s="16">
+        <v>39147.84</v>
+      </c>
+      <c r="F34" s="16">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A35" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="14">
+        <v>259879.29</v>
+      </c>
+      <c r="D35" s="14">
+        <v>100</v>
+      </c>
+      <c r="E35" s="14">
+        <v>1195742.33</v>
+      </c>
+      <c r="F35" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="13">
-        <v>46.69</v>
-      </c>
-      <c r="D37" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="E37" s="13">
-        <v>46.69</v>
-      </c>
-      <c r="F37" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="11" t="s">
+      <c r="A37" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B37" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="13">
-        <v>137.24</v>
-      </c>
-      <c r="D38" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="E38" s="13">
-        <v>405.51</v>
-      </c>
-      <c r="F38" s="13">
-        <v>0.04</v>
-      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="13">
-        <v>379.41</v>
-      </c>
-      <c r="D39" s="13">
-        <v>0.14</v>
-      </c>
-      <c r="E39" s="13">
-        <v>718.07</v>
-      </c>
-      <c r="F39" s="13">
-        <v>0.08</v>
-      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="11" t="s">
@@ -2549,16 +2675,16 @@
         <v>64</v>
       </c>
       <c r="C40" s="13">
-        <v>850.42</v>
+        <v>0</v>
       </c>
       <c r="D40" s="13">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="E40" s="13">
-        <v>850.42</v>
+        <v>46.69</v>
       </c>
       <c r="F40" s="13">
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -2569,16 +2695,16 @@
         <v>66</v>
       </c>
       <c r="C41" s="13">
-        <v>181.35</v>
+        <v>48.68</v>
       </c>
       <c r="D41" s="13">
-        <v>0.07</v>
+        <v>0.02</v>
       </c>
       <c r="E41" s="13">
-        <v>1242.07</v>
+        <v>454.19</v>
       </c>
       <c r="F41" s="13">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -2589,16 +2715,16 @@
         <v>68</v>
       </c>
       <c r="C42" s="13">
-        <v>11.25</v>
+        <v>138.32</v>
       </c>
       <c r="D42" s="13">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E42" s="13">
-        <v>21.25</v>
+        <v>856.39</v>
       </c>
       <c r="F42" s="13">
-        <v>0</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -2609,16 +2735,16 @@
         <v>70</v>
       </c>
       <c r="C43" s="13">
-        <v>390.01</v>
+        <v>0</v>
       </c>
       <c r="D43" s="13">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="E43" s="13">
-        <v>1172.98</v>
+        <v>850.42</v>
       </c>
       <c r="F43" s="13">
-        <v>0.13</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -2629,16 +2755,16 @@
         <v>72</v>
       </c>
       <c r="C44" s="13">
-        <v>94.31</v>
+        <v>883.6</v>
       </c>
       <c r="D44" s="13">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="E44" s="13">
-        <v>282.93</v>
+        <v>2125.67</v>
       </c>
       <c r="F44" s="13">
-        <v>0.03</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -2649,16 +2775,16 @@
         <v>74</v>
       </c>
       <c r="C45" s="13">
-        <v>1687.75</v>
+        <v>-21.25</v>
       </c>
       <c r="D45" s="13">
-        <v>0.61</v>
+        <v>-0.01</v>
       </c>
       <c r="E45" s="13">
-        <v>3270.53</v>
+        <v>0</v>
       </c>
       <c r="F45" s="13">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -2669,13 +2795,13 @@
         <v>76</v>
       </c>
       <c r="C46" s="13">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="D46" s="13">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E46" s="13">
-        <v>299.76</v>
+        <v>320</v>
       </c>
       <c r="F46" s="13">
         <v>0.03</v>
@@ -2689,16 +2815,16 @@
         <v>78</v>
       </c>
       <c r="C47" s="13">
-        <v>89</v>
+        <v>397.7</v>
       </c>
       <c r="D47" s="13">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="E47" s="13">
-        <v>267</v>
+        <v>1570.68</v>
       </c>
       <c r="F47" s="13">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -2709,16 +2835,16 @@
         <v>80</v>
       </c>
       <c r="C48" s="13">
-        <v>750</v>
+        <v>94.31</v>
       </c>
       <c r="D48" s="13">
-        <v>0.27</v>
+        <v>0.04</v>
       </c>
       <c r="E48" s="13">
-        <v>2252.84</v>
+        <v>377.24</v>
       </c>
       <c r="F48" s="13">
-        <v>0.24</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -2729,16 +2855,16 @@
         <v>82</v>
       </c>
       <c r="C49" s="13">
-        <v>1864.25</v>
+        <v>-107.75</v>
       </c>
       <c r="D49" s="13">
-        <v>0.68</v>
+        <v>-0.04</v>
       </c>
       <c r="E49" s="13">
-        <v>8113.25</v>
+        <v>3162.78</v>
       </c>
       <c r="F49" s="13">
-        <v>0.87</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -2749,16 +2875,16 @@
         <v>84</v>
       </c>
       <c r="C50" s="13">
-        <v>1168.06</v>
+        <v>159.98</v>
       </c>
       <c r="D50" s="13">
-        <v>0.42</v>
+        <v>0.06</v>
       </c>
       <c r="E50" s="13">
-        <v>3827.47</v>
+        <v>459.74</v>
       </c>
       <c r="F50" s="13">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -2768,97 +2894,117 @@
       <c r="B51" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="15">
-        <v>475.96</v>
-      </c>
-      <c r="D51" s="15">
-        <v>0.17</v>
-      </c>
-      <c r="E51" s="15">
-        <v>1073.62</v>
-      </c>
-      <c r="F51" s="15">
-        <v>0.11</v>
+      <c r="C51" s="13">
+        <v>0</v>
+      </c>
+      <c r="D51" s="13">
+        <v>0</v>
+      </c>
+      <c r="E51" s="13">
+        <v>267</v>
+      </c>
+      <c r="F51" s="13">
+        <v>0.02</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="14">
-        <v>8125.7</v>
-      </c>
-      <c r="D52" s="14">
-        <v>2.94</v>
-      </c>
-      <c r="E52" s="14">
-        <v>23844.39</v>
-      </c>
-      <c r="F52" s="14">
-        <v>2.55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1">
-      <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
+      <c r="C52" s="13">
+        <v>27.2</v>
+      </c>
+      <c r="D52" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="E52" s="13">
+        <v>2280.04</v>
+      </c>
+      <c r="F52" s="13">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A53" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="13">
+        <v>0</v>
+      </c>
+      <c r="D53" s="13">
+        <v>0</v>
+      </c>
+      <c r="E53" s="13">
+        <v>8113.25</v>
+      </c>
+      <c r="F53" s="13">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="54" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
+      <c r="A54" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="13">
+        <v>1187.04</v>
+      </c>
+      <c r="D54" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="E54" s="13">
+        <v>5014.51</v>
+      </c>
+      <c r="F54" s="13">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="55" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A55" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C55" s="15">
-        <v>12461.37</v>
+        <v>56</v>
       </c>
       <c r="D55" s="15">
-        <v>4.51</v>
+        <v>0.02</v>
       </c>
       <c r="E55" s="15">
-        <v>34520.58</v>
+        <v>1129.62</v>
       </c>
       <c r="F55" s="15">
-        <v>3.69</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C56" s="14">
-        <v>12461.37</v>
+        <v>3183.83</v>
       </c>
       <c r="D56" s="14">
-        <v>4.51</v>
+        <v>1.23</v>
       </c>
       <c r="E56" s="14">
-        <v>34520.58</v>
+        <v>27028.22</v>
       </c>
       <c r="F56" s="14">
-        <v>3.69</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1">
@@ -2871,115 +3017,95 @@
     </row>
     <row r="58" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A58" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1">
-      <c r="A59" s="11"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
+    <row r="59" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A59" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="15">
+        <v>8400</v>
+      </c>
+      <c r="D59" s="15">
+        <v>3.23</v>
+      </c>
+      <c r="E59" s="15">
+        <v>42920.58</v>
+      </c>
+      <c r="F59" s="15">
+        <v>3.59</v>
+      </c>
     </row>
     <row r="60" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-    </row>
-    <row r="61" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C61" s="13">
-        <v>12914.16</v>
-      </c>
-      <c r="D61" s="13">
-        <v>4.68</v>
-      </c>
-      <c r="E61" s="13">
-        <v>34840.96</v>
-      </c>
-      <c r="F61" s="13">
-        <v>3.72</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C60" s="14">
+        <v>8400</v>
+      </c>
+      <c r="D60" s="14">
+        <v>3.23</v>
+      </c>
+      <c r="E60" s="14">
+        <v>42920.58</v>
+      </c>
+      <c r="F60" s="14">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1">
+      <c r="A61" s="11"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
     </row>
     <row r="62" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A62" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C62" s="13">
-        <v>1519.1</v>
-      </c>
-      <c r="D62" s="13">
-        <v>0.55</v>
-      </c>
-      <c r="E62" s="13">
-        <v>4145.94</v>
-      </c>
-      <c r="F62" s="13">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A63" s="11" t="s">
+      <c r="A62" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B62" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="13">
-        <v>937.51</v>
-      </c>
-      <c r="D63" s="13">
-        <v>0.34</v>
-      </c>
-      <c r="E63" s="13">
-        <v>937.51</v>
-      </c>
-      <c r="F63" s="13">
-        <v>0.1</v>
-      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1">
+      <c r="A63" s="11"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
     </row>
     <row r="64" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="13">
-        <v>417.25</v>
-      </c>
-      <c r="D64" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="E64" s="13">
-        <v>1135.71</v>
-      </c>
-      <c r="F64" s="13">
-        <v>0.12</v>
-      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
     </row>
     <row r="65" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="11" t="s">
@@ -2989,16 +3115,16 @@
         <v>108</v>
       </c>
       <c r="C65" s="13">
-        <v>978.11</v>
+        <v>13791.61</v>
       </c>
       <c r="D65" s="13">
-        <v>0.35</v>
+        <v>5.31</v>
       </c>
       <c r="E65" s="13">
-        <v>3121.88</v>
+        <v>48632.57</v>
       </c>
       <c r="F65" s="13">
-        <v>0.33</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -3009,16 +3135,16 @@
         <v>110</v>
       </c>
       <c r="C66" s="13">
-        <v>26</v>
+        <v>1622.13</v>
       </c>
       <c r="D66" s="13">
-        <v>0.01</v>
+        <v>0.62</v>
       </c>
       <c r="E66" s="13">
-        <v>39</v>
+        <v>5768.07</v>
       </c>
       <c r="F66" s="13">
-        <v>0</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -3029,16 +3155,16 @@
         <v>112</v>
       </c>
       <c r="C67" s="13">
-        <v>903.99</v>
+        <v>653.31</v>
       </c>
       <c r="D67" s="13">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="E67" s="13">
-        <v>2438.86</v>
+        <v>1590.82</v>
       </c>
       <c r="F67" s="13">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -3049,16 +3175,16 @@
         <v>114</v>
       </c>
       <c r="C68" s="13">
-        <v>1129</v>
+        <v>443.97</v>
       </c>
       <c r="D68" s="13">
-        <v>0.41</v>
+        <v>0.17</v>
       </c>
       <c r="E68" s="13">
-        <v>3241.32</v>
+        <v>1579.68</v>
       </c>
       <c r="F68" s="13">
-        <v>0.35</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -3068,158 +3194,158 @@
       <c r="B69" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C69" s="15">
-        <v>760.41</v>
-      </c>
-      <c r="D69" s="15">
+      <c r="C69" s="13">
+        <v>1831.3</v>
+      </c>
+      <c r="D69" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="E69" s="13">
+        <v>4953.18</v>
+      </c>
+      <c r="F69" s="13">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A70" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70" s="13">
+        <v>1087.68</v>
+      </c>
+      <c r="D70" s="13">
+        <v>0.42</v>
+      </c>
+      <c r="E70" s="13">
+        <v>1087.68</v>
+      </c>
+      <c r="F70" s="13">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A71" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" s="13">
+        <v>50.4</v>
+      </c>
+      <c r="D71" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="E71" s="13">
+        <v>89.4</v>
+      </c>
+      <c r="F71" s="13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A72" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="13">
+        <v>965.42</v>
+      </c>
+      <c r="D72" s="13">
+        <v>0.37</v>
+      </c>
+      <c r="E72" s="13">
+        <v>3404.28</v>
+      </c>
+      <c r="F72" s="13">
         <v>0.28</v>
       </c>
-      <c r="E69" s="15">
-        <v>760.41</v>
-      </c>
-      <c r="F69" s="15">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A70" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C70" s="14">
-        <v>19585.53</v>
-      </c>
-      <c r="D70" s="14">
-        <v>7.09</v>
-      </c>
-      <c r="E70" s="14">
-        <v>50661.59</v>
-      </c>
-      <c r="F70" s="14">
-        <v>5.41</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1">
-      <c r="A71" s="11"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-    </row>
-    <row r="72" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A72" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
     </row>
     <row r="73" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C73" s="13">
-        <v>12292.71</v>
+        <v>1129</v>
       </c>
       <c r="D73" s="13">
-        <v>4.45</v>
+        <v>0.43</v>
       </c>
       <c r="E73" s="13">
-        <v>41566.94</v>
+        <v>4370.32</v>
       </c>
       <c r="F73" s="13">
-        <v>4.44</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C74" s="13">
-        <v>1439.84</v>
-      </c>
-      <c r="D74" s="13">
-        <v>0.52</v>
-      </c>
-      <c r="E74" s="13">
-        <v>4975.41</v>
-      </c>
-      <c r="F74" s="13">
-        <v>0.53</v>
+        <v>126</v>
+      </c>
+      <c r="C74" s="15">
+        <v>0</v>
+      </c>
+      <c r="D74" s="15">
+        <v>0</v>
+      </c>
+      <c r="E74" s="15">
+        <v>760.41</v>
+      </c>
+      <c r="F74" s="15">
+        <v>0.06</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A75" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C75" s="13">
-        <v>763.28</v>
-      </c>
-      <c r="D75" s="13">
-        <v>0.28</v>
-      </c>
-      <c r="E75" s="13">
-        <v>2462.31</v>
-      </c>
-      <c r="F75" s="13">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A76" s="11" t="s">
+      <c r="A75" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B75" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C76" s="13">
-        <v>138.6</v>
-      </c>
-      <c r="D76" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="E76" s="13">
-        <v>423.5</v>
-      </c>
-      <c r="F76" s="13">
-        <v>0.05</v>
-      </c>
+      <c r="C75" s="14">
+        <v>21574.82</v>
+      </c>
+      <c r="D75" s="14">
+        <v>8.3</v>
+      </c>
+      <c r="E75" s="14">
+        <v>72236.41</v>
+      </c>
+      <c r="F75" s="14">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15" customHeight="1">
+      <c r="A76" s="11"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
     </row>
     <row r="77" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C77" s="13">
-        <v>22.41</v>
-      </c>
-      <c r="D77" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="E77" s="13">
-        <v>22.41</v>
-      </c>
-      <c r="F77" s="13">
-        <v>0</v>
-      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
     </row>
     <row r="78" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A78" s="11" t="s">
@@ -3229,16 +3355,16 @@
         <v>132</v>
       </c>
       <c r="C78" s="13">
-        <v>860.49</v>
+        <v>14321.09</v>
       </c>
       <c r="D78" s="13">
-        <v>0.31</v>
+        <v>5.51</v>
       </c>
       <c r="E78" s="13">
-        <v>2909.68</v>
+        <v>55888.03</v>
       </c>
       <c r="F78" s="13">
-        <v>0.31</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -3249,16 +3375,16 @@
         <v>134</v>
       </c>
       <c r="C79" s="13">
-        <v>899</v>
+        <v>1661.26</v>
       </c>
       <c r="D79" s="13">
-        <v>0.33</v>
+        <v>0.64</v>
       </c>
       <c r="E79" s="13">
-        <v>3596</v>
+        <v>6636.67</v>
       </c>
       <c r="F79" s="13">
-        <v>0.38</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -3269,16 +3395,16 @@
         <v>136</v>
       </c>
       <c r="C80" s="13">
-        <v>824.71</v>
+        <v>843.12</v>
       </c>
       <c r="D80" s="13">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="E80" s="13">
-        <v>868.87</v>
+        <v>3305.43</v>
       </c>
       <c r="F80" s="13">
-        <v>0.09</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -3288,205 +3414,225 @@
       <c r="B81" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C81" s="15">
-        <v>995.59</v>
-      </c>
-      <c r="D81" s="15">
-        <v>0.36</v>
-      </c>
-      <c r="E81" s="15">
-        <v>1216.01</v>
-      </c>
-      <c r="F81" s="15">
-        <v>0.13</v>
+      <c r="C81" s="13">
+        <v>143.22</v>
+      </c>
+      <c r="D81" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="E81" s="13">
+        <v>566.72</v>
+      </c>
+      <c r="F81" s="13">
+        <v>0.05</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C82" s="16">
-        <v>18236.63</v>
-      </c>
-      <c r="D82" s="16">
-        <v>6.61</v>
-      </c>
-      <c r="E82" s="16">
-        <v>58041.13</v>
-      </c>
-      <c r="F82" s="16">
-        <v>6.2</v>
+      <c r="C82" s="13">
+        <v>61.11</v>
+      </c>
+      <c r="D82" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="E82" s="13">
+        <v>83.52</v>
+      </c>
+      <c r="F82" s="13">
+        <v>0.01</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C83" s="14">
-        <v>37822.16</v>
-      </c>
-      <c r="D83" s="14">
-        <v>13.7</v>
-      </c>
-      <c r="E83" s="14">
-        <v>108702.72</v>
-      </c>
-      <c r="F83" s="14">
-        <v>11.62</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1">
-      <c r="A84" s="11"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
+      <c r="C83" s="13">
+        <v>1002.47</v>
+      </c>
+      <c r="D83" s="13">
+        <v>0.39</v>
+      </c>
+      <c r="E83" s="13">
+        <v>3912.15</v>
+      </c>
+      <c r="F83" s="13">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A84" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C84" s="13">
+        <v>899</v>
+      </c>
+      <c r="D84" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="E84" s="13">
+        <v>4495</v>
+      </c>
+      <c r="F84" s="13">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="85" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A85" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
+      <c r="A85" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C85" s="13">
+        <v>1207</v>
+      </c>
+      <c r="D85" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="E85" s="13">
+        <v>2075.87</v>
+      </c>
+      <c r="F85" s="13">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="86" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C86" s="13">
-        <v>0</v>
-      </c>
-      <c r="D86" s="13">
-        <v>0</v>
-      </c>
-      <c r="E86" s="13">
-        <v>2700</v>
-      </c>
-      <c r="F86" s="13">
-        <v>0.29</v>
+        <v>148</v>
+      </c>
+      <c r="C86" s="15">
+        <v>0</v>
+      </c>
+      <c r="D86" s="15">
+        <v>0</v>
+      </c>
+      <c r="E86" s="15">
+        <v>1216.01</v>
+      </c>
+      <c r="F86" s="15">
+        <v>0.1</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A87" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C87" s="13">
-        <v>112</v>
-      </c>
-      <c r="D87" s="13">
-        <v>0.04</v>
-      </c>
-      <c r="E87" s="13">
-        <v>160.15</v>
-      </c>
-      <c r="F87" s="13">
-        <v>0.02</v>
+      <c r="A87" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C87" s="16">
+        <v>20138.27</v>
+      </c>
+      <c r="D87" s="16">
+        <v>7.75</v>
+      </c>
+      <c r="E87" s="16">
+        <v>78179.4</v>
+      </c>
+      <c r="F87" s="16">
+        <v>6.54</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A88" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C88" s="15">
-        <v>25</v>
-      </c>
-      <c r="D88" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="E88" s="15">
-        <v>1350</v>
-      </c>
-      <c r="F88" s="15">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A89" s="8" t="s">
+      <c r="A88" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B88" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C89" s="14">
-        <v>137</v>
-      </c>
-      <c r="D89" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="E89" s="14">
-        <v>4210.15</v>
-      </c>
-      <c r="F89" s="14">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="15" customHeight="1">
-      <c r="A90" s="11"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
+      <c r="C88" s="14">
+        <v>41713.09</v>
+      </c>
+      <c r="D88" s="14">
+        <v>16.05</v>
+      </c>
+      <c r="E88" s="14">
+        <v>150415.81</v>
+      </c>
+      <c r="F88" s="14">
+        <v>12.58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15" customHeight="1">
+      <c r="A89" s="11"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+    </row>
+    <row r="90" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A90" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
     </row>
     <row r="91" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A91" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
+      <c r="A91" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C91" s="13">
+        <v>2022.55</v>
+      </c>
+      <c r="D91" s="13">
+        <v>0.78</v>
+      </c>
+      <c r="E91" s="13">
+        <v>2022.55</v>
+      </c>
+      <c r="F91" s="13">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="92" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A92" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C92" s="13">
-        <v>421.71</v>
+        <v>89.99</v>
       </c>
       <c r="D92" s="13">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="E92" s="13">
-        <v>852.99</v>
+        <v>89.99</v>
       </c>
       <c r="F92" s="13">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A93" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C93" s="13">
         <v>0</v>
@@ -3495,111 +3641,91 @@
         <v>0</v>
       </c>
       <c r="E93" s="13">
-        <v>99.54</v>
+        <v>2700</v>
       </c>
       <c r="F93" s="13">
-        <v>0.01</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A94" s="11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C94" s="13">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D94" s="13">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E94" s="13">
-        <v>82.69</v>
+        <v>239.15</v>
       </c>
       <c r="F94" s="13">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A95" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C95" s="13">
-        <v>0</v>
-      </c>
-      <c r="D95" s="13">
-        <v>0</v>
-      </c>
-      <c r="E95" s="13">
-        <v>507.29</v>
-      </c>
-      <c r="F95" s="13">
-        <v>0.05</v>
+        <v>164</v>
+      </c>
+      <c r="C95" s="15">
+        <v>0</v>
+      </c>
+      <c r="D95" s="15">
+        <v>0</v>
+      </c>
+      <c r="E95" s="15">
+        <v>1350</v>
+      </c>
+      <c r="F95" s="15">
+        <v>0.11</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A96" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C96" s="13">
-        <v>0</v>
-      </c>
-      <c r="D96" s="13">
-        <v>0</v>
-      </c>
-      <c r="E96" s="13">
-        <v>230.72</v>
-      </c>
-      <c r="F96" s="13">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A97" s="11" t="s">
+      <c r="A96" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="B96" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C97" s="13">
-        <v>552.47</v>
-      </c>
-      <c r="D97" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="E97" s="13">
-        <v>1121.35</v>
-      </c>
-      <c r="F97" s="13">
-        <v>0.12</v>
-      </c>
+      <c r="C96" s="14">
+        <v>2191.54</v>
+      </c>
+      <c r="D96" s="14">
+        <v>0.84</v>
+      </c>
+      <c r="E96" s="14">
+        <v>6401.69</v>
+      </c>
+      <c r="F96" s="14">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15" customHeight="1">
+      <c r="A97" s="11"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
     </row>
     <row r="98" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C98" s="13">
-        <v>625.12</v>
-      </c>
-      <c r="D98" s="13">
-        <v>0.23</v>
-      </c>
-      <c r="E98" s="13">
-        <v>962.85</v>
-      </c>
-      <c r="F98" s="13">
-        <v>0.1</v>
-      </c>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
     </row>
     <row r="99" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A99" s="11" t="s">
@@ -3609,16 +3735,16 @@
         <v>170</v>
       </c>
       <c r="C99" s="13">
-        <v>0</v>
+        <v>143.99</v>
       </c>
       <c r="D99" s="13">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E99" s="13">
-        <v>142.56</v>
+        <v>996.98</v>
       </c>
       <c r="F99" s="13">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -3635,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="13">
-        <v>114.15</v>
+        <v>99.54</v>
       </c>
       <c r="F100" s="13">
         <v>0.01</v>
@@ -3649,16 +3775,16 @@
         <v>174</v>
       </c>
       <c r="C101" s="13">
-        <v>0</v>
+        <v>-82.69</v>
       </c>
       <c r="D101" s="13">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="E101" s="13">
-        <v>104.6</v>
+        <v>0</v>
       </c>
       <c r="F101" s="13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -3669,16 +3795,16 @@
         <v>176</v>
       </c>
       <c r="C102" s="13">
-        <v>40.92</v>
+        <v>142.71</v>
       </c>
       <c r="D102" s="13">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="E102" s="13">
-        <v>380.52</v>
+        <v>650</v>
       </c>
       <c r="F102" s="13">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -3689,16 +3815,16 @@
         <v>178</v>
       </c>
       <c r="C103" s="13">
-        <v>0</v>
+        <v>231.53</v>
       </c>
       <c r="D103" s="13">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="E103" s="13">
-        <v>84.51</v>
+        <v>462.25</v>
       </c>
       <c r="F103" s="13">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -3709,16 +3835,16 @@
         <v>180</v>
       </c>
       <c r="C104" s="13">
-        <v>642.08</v>
+        <v>277.62</v>
       </c>
       <c r="D104" s="13">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="E104" s="13">
-        <v>841.35</v>
+        <v>1398.97</v>
       </c>
       <c r="F104" s="13">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -3729,16 +3855,16 @@
         <v>182</v>
       </c>
       <c r="C105" s="13">
-        <v>74.58</v>
+        <v>158.66</v>
       </c>
       <c r="D105" s="13">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="E105" s="13">
-        <v>74.58</v>
+        <v>1121.51</v>
       </c>
       <c r="F105" s="13">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -3749,16 +3875,16 @@
         <v>184</v>
       </c>
       <c r="C106" s="13">
-        <v>122.17</v>
+        <v>0</v>
       </c>
       <c r="D106" s="13">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E106" s="13">
-        <v>281.67</v>
+        <v>142.56</v>
       </c>
       <c r="F106" s="13">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -3769,16 +3895,16 @@
         <v>186</v>
       </c>
       <c r="C107" s="13">
-        <v>0</v>
+        <v>225.24</v>
       </c>
       <c r="D107" s="13">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="E107" s="13">
-        <v>3250</v>
+        <v>339.39</v>
       </c>
       <c r="F107" s="13">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -3795,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="E108" s="13">
-        <v>980</v>
+        <v>104.6</v>
       </c>
       <c r="F108" s="13">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -3809,16 +3935,16 @@
         <v>190</v>
       </c>
       <c r="C109" s="13">
-        <v>411.5</v>
+        <v>45.66</v>
       </c>
       <c r="D109" s="13">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="E109" s="13">
-        <v>1102.1</v>
+        <v>426.18</v>
       </c>
       <c r="F109" s="13">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -3829,16 +3955,16 @@
         <v>192</v>
       </c>
       <c r="C110" s="13">
-        <v>339.39</v>
+        <v>0</v>
       </c>
       <c r="D110" s="13">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="E110" s="13">
-        <v>352.56</v>
+        <v>84.51</v>
       </c>
       <c r="F110" s="13">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -3849,16 +3975,16 @@
         <v>194</v>
       </c>
       <c r="C111" s="13">
-        <v>974.15</v>
+        <v>811.16</v>
       </c>
       <c r="D111" s="13">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="E111" s="13">
-        <v>974.15</v>
+        <v>1652.51</v>
       </c>
       <c r="F111" s="13">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -3869,16 +3995,16 @@
         <v>196</v>
       </c>
       <c r="C112" s="13">
-        <v>1000</v>
+        <v>-74.58</v>
       </c>
       <c r="D112" s="13">
-        <v>0.36</v>
+        <v>-0.03</v>
       </c>
       <c r="E112" s="13">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F112" s="13">
-        <v>0.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -3889,16 +4015,16 @@
         <v>198</v>
       </c>
       <c r="C113" s="13">
-        <v>0</v>
+        <v>313.21</v>
       </c>
       <c r="D113" s="13">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E113" s="13">
-        <v>1400</v>
+        <v>594.88</v>
       </c>
       <c r="F113" s="13">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -3909,16 +4035,16 @@
         <v>200</v>
       </c>
       <c r="C114" s="13">
-        <v>2031.44</v>
+        <v>0</v>
       </c>
       <c r="D114" s="13">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="E114" s="13">
-        <v>2031.44</v>
+        <v>3250</v>
       </c>
       <c r="F114" s="13">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -3929,16 +4055,16 @@
         <v>202</v>
       </c>
       <c r="C115" s="13">
-        <v>1952.02</v>
+        <v>0</v>
       </c>
       <c r="D115" s="13">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="E115" s="13">
-        <v>2465</v>
+        <v>980</v>
       </c>
       <c r="F115" s="13">
-        <v>0.26</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -3949,16 +4075,16 @@
         <v>204</v>
       </c>
       <c r="C116" s="13">
-        <v>365.39</v>
+        <v>367.28</v>
       </c>
       <c r="D116" s="13">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="E116" s="13">
-        <v>1729</v>
+        <v>1469.38</v>
       </c>
       <c r="F116" s="13">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -3969,16 +4095,16 @@
         <v>206</v>
       </c>
       <c r="C117" s="13">
-        <v>9.3</v>
+        <v>220.64</v>
       </c>
       <c r="D117" s="13">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E117" s="13">
-        <v>9.3</v>
+        <v>573.2</v>
       </c>
       <c r="F117" s="13">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -3989,16 +4115,16 @@
         <v>208</v>
       </c>
       <c r="C118" s="13">
-        <v>518.87</v>
+        <v>2133.23</v>
       </c>
       <c r="D118" s="13">
-        <v>0.19</v>
+        <v>0.82</v>
       </c>
       <c r="E118" s="13">
-        <v>518.87</v>
+        <v>3107.38</v>
       </c>
       <c r="F118" s="13">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -4008,105 +4134,125 @@
       <c r="B119" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C119" s="15">
-        <v>18.79</v>
-      </c>
-      <c r="D119" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="E119" s="15">
-        <v>18.79</v>
-      </c>
-      <c r="F119" s="15">
-        <v>0</v>
+      <c r="C119" s="13">
+        <v>-1000</v>
+      </c>
+      <c r="D119" s="13">
+        <v>-0.38</v>
+      </c>
+      <c r="E119" s="13">
+        <v>1000</v>
+      </c>
+      <c r="F119" s="13">
+        <v>0.08</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A120" s="8" t="s">
+      <c r="A120" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C120" s="14">
-        <v>10099.9</v>
-      </c>
-      <c r="D120" s="14">
-        <v>3.66</v>
-      </c>
-      <c r="E120" s="14">
-        <v>22712.58</v>
-      </c>
-      <c r="F120" s="14">
-        <v>2.43</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="15" customHeight="1">
-      <c r="A121" s="11"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="11"/>
+      <c r="C120" s="13">
+        <v>218</v>
+      </c>
+      <c r="D120" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="E120" s="13">
+        <v>1618</v>
+      </c>
+      <c r="F120" s="13">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A121" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C121" s="13">
+        <v>0</v>
+      </c>
+      <c r="D121" s="13">
+        <v>0</v>
+      </c>
+      <c r="E121" s="13">
+        <v>2031.44</v>
+      </c>
+      <c r="F121" s="13">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="122" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A122" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
+      <c r="A122" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C122" s="13">
+        <v>1132.61</v>
+      </c>
+      <c r="D122" s="13">
+        <v>0.44</v>
+      </c>
+      <c r="E122" s="13">
+        <v>3597.61</v>
+      </c>
+      <c r="F122" s="13">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="123" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A123" s="11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C123" s="13">
-        <v>403.26</v>
+        <v>79.98</v>
       </c>
       <c r="D123" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="E123" s="13">
+        <v>1808.98</v>
+      </c>
+      <c r="F123" s="13">
         <v>0.15</v>
-      </c>
-      <c r="E123" s="13">
-        <v>482.33</v>
-      </c>
-      <c r="F123" s="13">
-        <v>0.05</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A124" s="11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C124" s="13">
-        <v>1145</v>
+        <v>0</v>
       </c>
       <c r="D124" s="13">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="E124" s="13">
-        <v>1145</v>
+        <v>9.3</v>
       </c>
       <c r="F124" s="13">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A125" s="11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C125" s="13">
         <v>0</v>
@@ -4115,91 +4261,71 @@
         <v>0</v>
       </c>
       <c r="E125" s="13">
-        <v>448.91</v>
+        <v>518.87</v>
       </c>
       <c r="F125" s="13">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A126" s="11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C126" s="13">
-        <v>228.32</v>
-      </c>
-      <c r="D126" s="13">
-        <v>0.08</v>
-      </c>
-      <c r="E126" s="13">
-        <v>515.34</v>
-      </c>
-      <c r="F126" s="13">
+        <v>224</v>
+      </c>
+      <c r="C126" s="15">
+        <v>714.3</v>
+      </c>
+      <c r="D126" s="15">
+        <v>0.27</v>
+      </c>
+      <c r="E126" s="15">
+        <v>733.09</v>
+      </c>
+      <c r="F126" s="15">
         <v>0.06</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A127" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="B127" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="C127" s="13">
-        <v>450.66</v>
-      </c>
-      <c r="D127" s="13">
-        <v>0.16</v>
-      </c>
-      <c r="E127" s="13">
-        <v>450.66</v>
-      </c>
-      <c r="F127" s="13">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A128" s="11" t="s">
+      <c r="A127" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="B127" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C128" s="13">
-        <v>0</v>
-      </c>
-      <c r="D128" s="13">
-        <v>0</v>
-      </c>
-      <c r="E128" s="13">
-        <v>222.93</v>
-      </c>
-      <c r="F128" s="13">
-        <v>0.02</v>
-      </c>
+      <c r="C127" s="14">
+        <v>6058.55</v>
+      </c>
+      <c r="D127" s="14">
+        <v>2.33</v>
+      </c>
+      <c r="E127" s="14">
+        <v>28771.13</v>
+      </c>
+      <c r="F127" s="14">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15" customHeight="1">
+      <c r="A128" s="11"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
     </row>
     <row r="129" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A129" s="11" t="s">
+      <c r="A129" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="B129" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C129" s="13">
-        <v>1122.05</v>
-      </c>
-      <c r="D129" s="13">
-        <v>0.41</v>
-      </c>
-      <c r="E129" s="13">
-        <v>2237.93</v>
-      </c>
-      <c r="F129" s="13">
-        <v>0.24</v>
-      </c>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
     </row>
     <row r="130" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A130" s="11" t="s">
@@ -4209,16 +4335,16 @@
         <v>230</v>
       </c>
       <c r="C130" s="13">
-        <v>115.46</v>
+        <v>0</v>
       </c>
       <c r="D130" s="13">
+        <v>0</v>
+      </c>
+      <c r="E130" s="13">
+        <v>482.33</v>
+      </c>
+      <c r="F130" s="13">
         <v>0.04</v>
-      </c>
-      <c r="E130" s="13">
-        <v>115.46</v>
-      </c>
-      <c r="F130" s="13">
-        <v>0.01</v>
       </c>
     </row>
     <row r="131" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -4229,16 +4355,16 @@
         <v>232</v>
       </c>
       <c r="C131" s="13">
-        <v>89.34</v>
+        <v>0</v>
       </c>
       <c r="D131" s="13">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E131" s="13">
-        <v>481.64</v>
+        <v>1145</v>
       </c>
       <c r="F131" s="13">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="132" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -4248,198 +4374,206 @@
       <c r="B132" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C132" s="15">
-        <v>187.76</v>
-      </c>
-      <c r="D132" s="15">
-        <v>0.07</v>
-      </c>
-      <c r="E132" s="15">
-        <v>187.76</v>
-      </c>
-      <c r="F132" s="15">
+      <c r="C132" s="13">
+        <v>0</v>
+      </c>
+      <c r="D132" s="13">
+        <v>0</v>
+      </c>
+      <c r="E132" s="13">
+        <v>448.91</v>
+      </c>
+      <c r="F132" s="13">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A133" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C133" s="13">
+        <v>0</v>
+      </c>
+      <c r="D133" s="13">
+        <v>0</v>
+      </c>
+      <c r="E133" s="13">
+        <v>515.34</v>
+      </c>
+      <c r="F133" s="13">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A134" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C134" s="13">
+        <v>0</v>
+      </c>
+      <c r="D134" s="13">
+        <v>0</v>
+      </c>
+      <c r="E134" s="13">
+        <v>450.66</v>
+      </c>
+      <c r="F134" s="13">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A135" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C135" s="13">
+        <v>0</v>
+      </c>
+      <c r="D135" s="13">
+        <v>0</v>
+      </c>
+      <c r="E135" s="13">
+        <v>222.93</v>
+      </c>
+      <c r="F135" s="13">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A133" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C133" s="14">
-        <v>3741.85</v>
-      </c>
-      <c r="D133" s="14">
-        <v>1.36</v>
-      </c>
-      <c r="E133" s="14">
-        <v>6287.96</v>
-      </c>
-      <c r="F133" s="14">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="15" customHeight="1">
-      <c r="A134" s="11"/>
-      <c r="B134" s="12"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="11"/>
-    </row>
-    <row r="135" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A135" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
     </row>
     <row r="136" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A136" s="11" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C136" s="13">
-        <v>0</v>
+        <v>2396.68</v>
       </c>
       <c r="D136" s="13">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="E136" s="13">
-        <v>170.61</v>
+        <v>4634.61</v>
       </c>
       <c r="F136" s="13">
-        <v>0.02</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="137" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A137" s="11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C137" s="13">
-        <v>3466.87</v>
+        <v>0</v>
       </c>
       <c r="D137" s="13">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="E137" s="13">
-        <v>6112.63</v>
+        <v>115.46</v>
       </c>
       <c r="F137" s="13">
-        <v>0.65</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="138" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A138" s="11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C138" s="13">
-        <v>0</v>
+        <v>460.53</v>
       </c>
       <c r="D138" s="13">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="E138" s="13">
-        <v>206.75</v>
+        <v>942.17</v>
       </c>
       <c r="F138" s="13">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="139" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A139" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C139" s="13">
-        <v>3357.96</v>
+        <v>0</v>
       </c>
       <c r="D139" s="13">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="E139" s="13">
-        <v>10524.51</v>
+        <v>187.76</v>
       </c>
       <c r="F139" s="13">
-        <v>1.12</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="140" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A140" s="11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C140" s="13">
-        <v>0</v>
-      </c>
-      <c r="D140" s="13">
-        <v>0</v>
-      </c>
-      <c r="E140" s="13">
-        <v>6000</v>
-      </c>
-      <c r="F140" s="13">
-        <v>0.64</v>
+        <v>250</v>
+      </c>
+      <c r="C140" s="15">
+        <v>512.5</v>
+      </c>
+      <c r="D140" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="E140" s="15">
+        <v>512.5</v>
+      </c>
+      <c r="F140" s="15">
+        <v>0.04</v>
       </c>
     </row>
     <row r="141" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A141" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="B141" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="C141" s="13">
-        <v>5486.96</v>
-      </c>
-      <c r="D141" s="13">
-        <v>1.99</v>
-      </c>
-      <c r="E141" s="13">
-        <v>18289.87</v>
-      </c>
-      <c r="F141" s="13">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A142" s="11" t="s">
+      <c r="A141" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B142" s="12" t="s">
+      <c r="B141" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C142" s="15">
-        <v>7273.45</v>
-      </c>
-      <c r="D142" s="15">
-        <v>2.63</v>
-      </c>
-      <c r="E142" s="15">
-        <v>39087.43</v>
-      </c>
-      <c r="F142" s="15">
-        <v>4.18</v>
-      </c>
+      <c r="C141" s="14">
+        <v>3369.71</v>
+      </c>
+      <c r="D141" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="E141" s="14">
+        <v>9657.67</v>
+      </c>
+      <c r="F141" s="14">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15" customHeight="1">
+      <c r="A142" s="11"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
     </row>
     <row r="143" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A143" s="8" t="s">
@@ -4448,157 +4582,169 @@
       <c r="B143" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C143" s="14">
-        <v>19585.24</v>
-      </c>
-      <c r="D143" s="14">
-        <v>7.09</v>
-      </c>
-      <c r="E143" s="14">
-        <v>80391.8</v>
-      </c>
-      <c r="F143" s="14">
-        <v>8.59</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="15" customHeight="1">
-      <c r="A144" s="11"/>
-      <c r="B144" s="12"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
-      <c r="E144" s="11"/>
-      <c r="F144" s="11"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+    </row>
+    <row r="144" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A144" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C144" s="13">
+        <v>0</v>
+      </c>
+      <c r="D144" s="13">
+        <v>0</v>
+      </c>
+      <c r="E144" s="13">
+        <v>170.61</v>
+      </c>
+      <c r="F144" s="13">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="145" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A145" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
+      <c r="A145" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C145" s="13">
+        <v>1238.41</v>
+      </c>
+      <c r="D145" s="13">
+        <v>0.48</v>
+      </c>
+      <c r="E145" s="13">
+        <v>7351.04</v>
+      </c>
+      <c r="F145" s="13">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="146" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A146" s="11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C146" s="13">
-        <v>76267.35</v>
+        <v>325.5</v>
       </c>
       <c r="D146" s="13">
-        <v>27.63</v>
+        <v>0.13</v>
       </c>
       <c r="E146" s="13">
-        <v>76267.35</v>
+        <v>532.25</v>
       </c>
       <c r="F146" s="13">
-        <v>8.15</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="147" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A147" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C147" s="13">
-        <v>11713.7</v>
+        <v>3889.79</v>
       </c>
       <c r="D147" s="13">
-        <v>4.24</v>
+        <v>1.5</v>
       </c>
       <c r="E147" s="13">
-        <v>11713.7</v>
+        <v>14414.3</v>
       </c>
       <c r="F147" s="13">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="148" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A148" s="11" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C148" s="15">
-        <v>1570.56</v>
-      </c>
-      <c r="D148" s="15">
-        <v>0.57</v>
-      </c>
-      <c r="E148" s="15">
-        <v>1570.56</v>
-      </c>
-      <c r="F148" s="15">
-        <v>0.17</v>
+        <v>264</v>
+      </c>
+      <c r="C148" s="13">
+        <v>0</v>
+      </c>
+      <c r="D148" s="13">
+        <v>0</v>
+      </c>
+      <c r="E148" s="13">
+        <v>6000</v>
+      </c>
+      <c r="F148" s="13">
+        <v>0.5</v>
       </c>
     </row>
     <row r="149" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A149" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="C149" s="16">
-        <v>89551.61</v>
-      </c>
-      <c r="D149" s="16">
-        <v>32.44</v>
-      </c>
-      <c r="E149" s="16">
-        <v>89551.61</v>
-      </c>
-      <c r="F149" s="16">
-        <v>9.57</v>
+      <c r="A149" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C149" s="13">
+        <v>5486.96</v>
+      </c>
+      <c r="D149" s="13">
+        <v>2.11</v>
+      </c>
+      <c r="E149" s="13">
+        <v>23776.83</v>
+      </c>
+      <c r="F149" s="13">
+        <v>1.99</v>
       </c>
     </row>
     <row r="150" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A150" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C150" s="16">
-        <v>181524.83</v>
-      </c>
-      <c r="D150" s="16">
-        <v>65.75</v>
-      </c>
-      <c r="E150" s="16">
-        <v>370221.79</v>
-      </c>
-      <c r="F150" s="16">
-        <v>39.56</v>
+      <c r="A150" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C150" s="15">
+        <v>7782.19</v>
+      </c>
+      <c r="D150" s="15">
+        <v>2.99</v>
+      </c>
+      <c r="E150" s="15">
+        <v>46869.62</v>
+      </c>
+      <c r="F150" s="15">
+        <v>3.92</v>
       </c>
     </row>
     <row r="151" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A151" s="8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C151" s="14">
-        <v>94538.14</v>
+        <v>18722.85</v>
       </c>
       <c r="D151" s="14">
-        <v>34.25</v>
+        <v>7.2</v>
       </c>
       <c r="E151" s="14">
-        <v>565641.25</v>
+        <v>99114.65</v>
       </c>
       <c r="F151" s="14">
-        <v>60.44</v>
+        <v>8.29</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="15" customHeight="1">
@@ -4611,10 +4757,10 @@
     </row>
     <row r="153" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A153" s="8" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
@@ -4623,510 +4769,490 @@
     </row>
     <row r="154" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A154" s="11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C154" s="13">
-        <v>117047</v>
+        <v>18816.74</v>
       </c>
       <c r="D154" s="13">
-        <v>42.4</v>
+        <v>7.24</v>
       </c>
       <c r="E154" s="13">
-        <v>292617.5</v>
+        <v>18816.74</v>
       </c>
       <c r="F154" s="13">
-        <v>31.27</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="155" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A155" s="11" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="C155" s="15">
-        <v>52200</v>
-      </c>
-      <c r="D155" s="15">
-        <v>18.91</v>
-      </c>
-      <c r="E155" s="15">
-        <v>52200</v>
-      </c>
-      <c r="F155" s="15">
-        <v>5.58</v>
+        <v>276</v>
+      </c>
+      <c r="C155" s="13">
+        <v>413</v>
+      </c>
+      <c r="D155" s="13">
+        <v>0.16</v>
+      </c>
+      <c r="E155" s="13">
+        <v>413</v>
+      </c>
+      <c r="F155" s="13">
+        <v>0.03</v>
       </c>
     </row>
     <row r="156" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A156" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="C156" s="14">
-        <v>169247</v>
-      </c>
-      <c r="D156" s="14">
-        <v>61.31</v>
-      </c>
-      <c r="E156" s="14">
-        <v>344817.5</v>
-      </c>
-      <c r="F156" s="14">
-        <v>36.84</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="15" customHeight="1">
-      <c r="A157" s="11"/>
-      <c r="B157" s="12"/>
-      <c r="C157" s="11"/>
-      <c r="D157" s="11"/>
-      <c r="E157" s="11"/>
-      <c r="F157" s="11"/>
+      <c r="A156" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C156" s="13">
+        <v>23218.15</v>
+      </c>
+      <c r="D156" s="13">
+        <v>8.93</v>
+      </c>
+      <c r="E156" s="13">
+        <v>99485.5</v>
+      </c>
+      <c r="F156" s="13">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A157" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C157" s="13">
+        <v>3458.33</v>
+      </c>
+      <c r="D157" s="13">
+        <v>1.33</v>
+      </c>
+      <c r="E157" s="13">
+        <v>15172.03</v>
+      </c>
+      <c r="F157" s="13">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="158" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A158" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="C158" s="10"/>
-      <c r="D158" s="10"/>
-      <c r="E158" s="10"/>
-      <c r="F158" s="10"/>
+      <c r="A158" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C158" s="13">
+        <v>455.02</v>
+      </c>
+      <c r="D158" s="13">
+        <v>0.18</v>
+      </c>
+      <c r="E158" s="13">
+        <v>2025.58</v>
+      </c>
+      <c r="F158" s="13">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="159" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A159" s="11" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C159" s="15">
-        <v>0</v>
+        <v>765.78</v>
       </c>
       <c r="D159" s="15">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="E159" s="15">
-        <v>189873.5</v>
+        <v>765.78</v>
       </c>
       <c r="F159" s="15">
-        <v>20.29</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="160" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A160" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C160" s="14">
-        <v>0</v>
-      </c>
-      <c r="D160" s="14">
-        <v>0</v>
-      </c>
-      <c r="E160" s="14">
-        <v>189873.5</v>
-      </c>
-      <c r="F160" s="14">
-        <v>20.29</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="15" customHeight="1">
-      <c r="A161" s="11"/>
-      <c r="B161" s="12"/>
-      <c r="C161" s="11"/>
-      <c r="D161" s="11"/>
-      <c r="E161" s="11"/>
-      <c r="F161" s="11"/>
+        <v>286</v>
+      </c>
+      <c r="C160" s="16">
+        <v>47127.02</v>
+      </c>
+      <c r="D160" s="16">
+        <v>18.13</v>
+      </c>
+      <c r="E160" s="16">
+        <v>136678.63</v>
+      </c>
+      <c r="F160" s="16">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A161" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C161" s="16">
+        <v>130766.59</v>
+      </c>
+      <c r="D161" s="16">
+        <v>50.32</v>
+      </c>
+      <c r="E161" s="16">
+        <v>500988.38</v>
+      </c>
+      <c r="F161" s="16">
+        <v>41.9</v>
+      </c>
     </row>
     <row r="162" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A162" s="8" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="C162" s="10"/>
-      <c r="D162" s="10"/>
-      <c r="E162" s="10"/>
-      <c r="F162" s="10"/>
-    </row>
-    <row r="163" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A163" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="B163" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="C163" s="15">
-        <v>2047.4</v>
-      </c>
-      <c r="D163" s="15">
-        <v>0.74</v>
-      </c>
-      <c r="E163" s="15">
-        <v>2047.4</v>
-      </c>
-      <c r="F163" s="15">
-        <v>0.22</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="C162" s="14">
+        <v>129112.7</v>
+      </c>
+      <c r="D162" s="14">
+        <v>49.68</v>
+      </c>
+      <c r="E162" s="14">
+        <v>694753.95</v>
+      </c>
+      <c r="F162" s="14">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="15" customHeight="1">
+      <c r="A163" s="11"/>
+      <c r="B163" s="12"/>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
     </row>
     <row r="164" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A164" s="8" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="C164" s="14">
-        <v>2047.4</v>
-      </c>
-      <c r="D164" s="14">
-        <v>0.74</v>
-      </c>
-      <c r="E164" s="14">
-        <v>2047.4</v>
-      </c>
-      <c r="F164" s="14">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="15" customHeight="1">
-      <c r="A165" s="11"/>
-      <c r="B165" s="12"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="11"/>
-      <c r="E165" s="11"/>
-      <c r="F165" s="11"/>
+        <v>292</v>
+      </c>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
+    </row>
+    <row r="165" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A165" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C165" s="13">
+        <v>121698.57</v>
+      </c>
+      <c r="D165" s="13">
+        <v>46.83</v>
+      </c>
+      <c r="E165" s="13">
+        <v>414316.07</v>
+      </c>
+      <c r="F165" s="13">
+        <v>34.65</v>
+      </c>
     </row>
     <row r="166" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A166" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="C166" s="10"/>
-      <c r="D166" s="10"/>
-      <c r="E166" s="10"/>
-      <c r="F166" s="10"/>
+      <c r="A166" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C166" s="15">
+        <v>90652</v>
+      </c>
+      <c r="D166" s="15">
+        <v>34.88</v>
+      </c>
+      <c r="E166" s="15">
+        <v>142852</v>
+      </c>
+      <c r="F166" s="15">
+        <v>11.95</v>
+      </c>
     </row>
     <row r="167" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A167" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="B167" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="C167" s="13">
-        <v>3644.81</v>
-      </c>
-      <c r="D167" s="13">
-        <v>1.32</v>
-      </c>
-      <c r="E167" s="13">
-        <v>12700.51</v>
-      </c>
-      <c r="F167" s="13">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A168" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="B168" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C168" s="13">
-        <v>0</v>
-      </c>
-      <c r="D168" s="13">
-        <v>0</v>
-      </c>
-      <c r="E168" s="13">
-        <v>504.18</v>
-      </c>
-      <c r="F168" s="13">
-        <v>0.05</v>
-      </c>
+      <c r="A167" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C167" s="14">
+        <v>212350.57</v>
+      </c>
+      <c r="D167" s="14">
+        <v>81.71</v>
+      </c>
+      <c r="E167" s="14">
+        <v>557168.07</v>
+      </c>
+      <c r="F167" s="14">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="15" customHeight="1">
+      <c r="A168" s="11"/>
+      <c r="B168" s="12"/>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="11"/>
     </row>
     <row r="169" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A169" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="B169" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="C169" s="13">
-        <v>0</v>
-      </c>
-      <c r="D169" s="13">
-        <v>0</v>
-      </c>
-      <c r="E169" s="13">
-        <v>1959.24</v>
-      </c>
-      <c r="F169" s="13">
-        <v>0.21</v>
-      </c>
+      <c r="A169" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C169" s="10"/>
+      <c r="D169" s="10"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="10"/>
     </row>
     <row r="170" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A170" s="11" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C170" s="13">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="D170" s="13">
-        <v>0</v>
+        <v>4.81</v>
       </c>
       <c r="E170" s="13">
-        <v>1344.6</v>
+        <v>12500</v>
       </c>
       <c r="F170" s="13">
-        <v>0.14</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="171" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A171" s="11" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C171" s="13">
-        <v>63.8</v>
+        <v>6598</v>
       </c>
       <c r="D171" s="13">
-        <v>0.02</v>
+        <v>2.54</v>
       </c>
       <c r="E171" s="13">
-        <v>321.58</v>
+        <v>6598</v>
       </c>
       <c r="F171" s="13">
-        <v>0.03</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="172" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A172" s="11" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="C172" s="13">
-        <v>14725</v>
-      </c>
-      <c r="D172" s="13">
-        <v>5.33</v>
-      </c>
-      <c r="E172" s="13">
-        <v>14725</v>
-      </c>
-      <c r="F172" s="13">
-        <v>1.57</v>
+        <v>306</v>
+      </c>
+      <c r="C172" s="15">
+        <v>1505</v>
+      </c>
+      <c r="D172" s="15">
+        <v>0.58</v>
+      </c>
+      <c r="E172" s="15">
+        <v>191378.5</v>
+      </c>
+      <c r="F172" s="15">
+        <v>16</v>
       </c>
     </row>
     <row r="173" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A173" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="B173" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="C173" s="13">
-        <v>0</v>
-      </c>
-      <c r="D173" s="13">
-        <v>0</v>
-      </c>
-      <c r="E173" s="13">
-        <v>1520</v>
-      </c>
-      <c r="F173" s="13">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A174" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="B174" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="C174" s="13">
-        <v>3979.76</v>
-      </c>
-      <c r="D174" s="13">
-        <v>1.44</v>
-      </c>
-      <c r="E174" s="13">
-        <v>3979.76</v>
-      </c>
-      <c r="F174" s="13">
-        <v>0.43</v>
-      </c>
+      <c r="A173" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C173" s="14">
+        <v>20603</v>
+      </c>
+      <c r="D173" s="14">
+        <v>7.93</v>
+      </c>
+      <c r="E173" s="14">
+        <v>210476.5</v>
+      </c>
+      <c r="F173" s="14">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="15" customHeight="1">
+      <c r="A174" s="11"/>
+      <c r="B174" s="12"/>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
     </row>
     <row r="175" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A175" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="B175" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="C175" s="13">
-        <v>0</v>
-      </c>
-      <c r="D175" s="13">
-        <v>0</v>
-      </c>
-      <c r="E175" s="13">
-        <v>15481.86</v>
-      </c>
-      <c r="F175" s="13">
-        <v>1.65</v>
-      </c>
+      <c r="A175" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="10"/>
     </row>
     <row r="176" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A176" s="11" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="C176" s="13">
-        <v>15810.8</v>
-      </c>
-      <c r="D176" s="13">
-        <v>5.73</v>
-      </c>
-      <c r="E176" s="13">
-        <v>15870.77</v>
-      </c>
-      <c r="F176" s="13">
-        <v>1.7</v>
+        <v>312</v>
+      </c>
+      <c r="C176" s="15">
+        <v>0</v>
+      </c>
+      <c r="D176" s="15">
+        <v>0</v>
+      </c>
+      <c r="E176" s="15">
+        <v>2047.4</v>
+      </c>
+      <c r="F176" s="15">
+        <v>0.17</v>
       </c>
     </row>
     <row r="177" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A177" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="B177" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="C177" s="13">
-        <v>3481.36</v>
-      </c>
-      <c r="D177" s="13">
-        <v>1.26</v>
-      </c>
-      <c r="E177" s="13">
-        <v>9912.5</v>
-      </c>
-      <c r="F177" s="13">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A178" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="B178" s="12" t="s">
+      <c r="A177" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C178" s="13">
-        <v>48.21</v>
-      </c>
-      <c r="D178" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="E178" s="13">
-        <v>605.09</v>
-      </c>
-      <c r="F178" s="13">
-        <v>0.06</v>
-      </c>
+      <c r="B177" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C177" s="14">
+        <v>0</v>
+      </c>
+      <c r="D177" s="14">
+        <v>0</v>
+      </c>
+      <c r="E177" s="14">
+        <v>2047.4</v>
+      </c>
+      <c r="F177" s="14">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="15" customHeight="1">
+      <c r="A178" s="11"/>
+      <c r="B178" s="12"/>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="11"/>
     </row>
     <row r="179" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A179" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="B179" s="12" t="s">
+      <c r="A179" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C179" s="13">
-        <v>621.4</v>
-      </c>
-      <c r="D179" s="13">
-        <v>0.23</v>
-      </c>
-      <c r="E179" s="13">
-        <v>621.4</v>
-      </c>
-      <c r="F179" s="13">
-        <v>0.07</v>
-      </c>
+      <c r="B179" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C179" s="10"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="10"/>
     </row>
     <row r="180" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A180" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C180" s="13">
-        <v>0</v>
+        <v>1441.97</v>
       </c>
       <c r="D180" s="13">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="E180" s="13">
-        <v>305.99</v>
+        <v>1441.97</v>
       </c>
       <c r="F180" s="13">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="181" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A181" s="11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C181" s="13">
-        <v>2500</v>
+        <v>11074.41</v>
       </c>
       <c r="D181" s="13">
-        <v>0.91</v>
+        <v>4.26</v>
       </c>
       <c r="E181" s="13">
-        <v>4300</v>
+        <v>23774.92</v>
       </c>
       <c r="F181" s="13">
-        <v>0.46</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="182" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A182" s="11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>321</v>
+        <v>172</v>
       </c>
       <c r="C182" s="13">
         <v>0</v>
@@ -5135,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="E182" s="13">
-        <v>15710</v>
+        <v>504.18</v>
       </c>
       <c r="F182" s="13">
-        <v>1.68</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="183" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -5149,16 +5275,16 @@
         <v>323</v>
       </c>
       <c r="C183" s="13">
-        <v>3850</v>
+        <v>956.12</v>
       </c>
       <c r="D183" s="13">
-        <v>1.39</v>
+        <v>0.37</v>
       </c>
       <c r="E183" s="13">
-        <v>6350</v>
+        <v>2915.36</v>
       </c>
       <c r="F183" s="13">
-        <v>0.68</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="184" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -5169,16 +5295,16 @@
         <v>325</v>
       </c>
       <c r="C184" s="13">
-        <v>43.68</v>
+        <v>0</v>
       </c>
       <c r="D184" s="13">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E184" s="13">
-        <v>43.68</v>
+        <v>1344.6</v>
       </c>
       <c r="F184" s="13">
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="185" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -5195,10 +5321,10 @@
         <v>0</v>
       </c>
       <c r="E185" s="13">
-        <v>92.71</v>
+        <v>321.58</v>
       </c>
       <c r="F185" s="13">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="186" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -5215,10 +5341,10 @@
         <v>0</v>
       </c>
       <c r="E186" s="13">
-        <v>2000</v>
+        <v>14725</v>
       </c>
       <c r="F186" s="13">
-        <v>0.21</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="187" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -5229,16 +5355,16 @@
         <v>331</v>
       </c>
       <c r="C187" s="13">
-        <v>95900</v>
+        <v>0</v>
       </c>
       <c r="D187" s="13">
-        <v>34.74</v>
+        <v>0</v>
       </c>
       <c r="E187" s="13">
-        <v>95900</v>
+        <v>1520</v>
       </c>
       <c r="F187" s="13">
-        <v>10.25</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="188" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -5249,16 +5375,16 @@
         <v>333</v>
       </c>
       <c r="C188" s="13">
-        <v>2765.91</v>
+        <v>0</v>
       </c>
       <c r="D188" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E188" s="13">
-        <v>2765.91</v>
+        <v>3979.76</v>
       </c>
       <c r="F188" s="13">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="189" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -5269,16 +5395,16 @@
         <v>335</v>
       </c>
       <c r="C189" s="13">
-        <v>28562.87</v>
+        <v>0</v>
       </c>
       <c r="D189" s="13">
-        <v>10.35</v>
+        <v>0</v>
       </c>
       <c r="E189" s="13">
-        <v>28562.87</v>
+        <v>15481.86</v>
       </c>
       <c r="F189" s="13">
-        <v>3.05</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="190" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -5295,10 +5421,10 @@
         <v>0</v>
       </c>
       <c r="E190" s="13">
-        <v>84.13</v>
+        <v>15870.77</v>
       </c>
       <c r="F190" s="13">
-        <v>0.01</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="191" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -5308,83 +5434,105 @@
       <c r="B191" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="C191" s="15">
-        <v>0</v>
-      </c>
-      <c r="D191" s="15">
-        <v>0</v>
-      </c>
-      <c r="E191" s="15">
-        <v>15794.91</v>
-      </c>
-      <c r="F191" s="15">
-        <v>1.69</v>
+      <c r="C191" s="13">
+        <v>9864.98</v>
+      </c>
+      <c r="D191" s="13">
+        <v>3.8</v>
+      </c>
+      <c r="E191" s="13">
+        <v>19777.48</v>
+      </c>
+      <c r="F191" s="13">
+        <v>1.65</v>
       </c>
     </row>
     <row r="192" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A192" s="8" t="s">
+      <c r="A192" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="B192" s="9" t="s">
+      <c r="B192" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="C192" s="18">
-        <v>175997.6</v>
-      </c>
-      <c r="D192" s="18">
-        <v>63.75</v>
-      </c>
-      <c r="E192" s="18">
-        <v>251456.69</v>
-      </c>
-      <c r="F192" s="18">
-        <v>26.87</v>
+      <c r="C192" s="13">
+        <v>0</v>
+      </c>
+      <c r="D192" s="13">
+        <v>0</v>
+      </c>
+      <c r="E192" s="13">
+        <v>605.09</v>
+      </c>
+      <c r="F192" s="13">
+        <v>0.05</v>
       </c>
     </row>
     <row r="193" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A193" s="8" t="s">
+      <c r="A193" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="B193" s="9" t="s">
+      <c r="B193" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="C193" s="17">
-        <v>-252753.86</v>
-      </c>
-      <c r="D193" s="17">
-        <v>-91.56</v>
-      </c>
-      <c r="E193" s="17">
-        <v>-222553.84</v>
-      </c>
-      <c r="F193" s="17">
-        <v>-23.78</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="15" customHeight="1">
-      <c r="A194" s="11"/>
-      <c r="B194" s="12"/>
-      <c r="C194" s="19"/>
-      <c r="D194" s="19"/>
-      <c r="E194" s="19"/>
-      <c r="F194" s="19"/>
+      <c r="C193" s="13">
+        <v>0</v>
+      </c>
+      <c r="D193" s="13">
+        <v>0</v>
+      </c>
+      <c r="E193" s="13">
+        <v>621.4</v>
+      </c>
+      <c r="F193" s="13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A194" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B194" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="C194" s="13">
+        <v>0</v>
+      </c>
+      <c r="D194" s="13">
+        <v>0</v>
+      </c>
+      <c r="E194" s="13">
+        <v>305.99</v>
+      </c>
+      <c r="F194" s="13">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="195" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A195" s="11"/>
+      <c r="A195" s="11" t="s">
+        <v>346</v>
+      </c>
       <c r="B195" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="C195" s="20"/>
-      <c r="D195" s="20"/>
-      <c r="E195" s="20"/>
-      <c r="F195" s="20"/>
+        <v>347</v>
+      </c>
+      <c r="C195" s="13">
+        <v>0</v>
+      </c>
+      <c r="D195" s="13">
+        <v>0</v>
+      </c>
+      <c r="E195" s="13">
+        <v>4300</v>
+      </c>
+      <c r="F195" s="13">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="196" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A196" s="11" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C196" s="13">
         <v>0</v>
@@ -5393,58 +5541,58 @@
         <v>0</v>
       </c>
       <c r="E196" s="13">
-        <v>-155465.75</v>
+        <v>15710</v>
       </c>
       <c r="F196" s="13">
-        <v>-16.61</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="197" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A197" s="11" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C197" s="13">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="D197" s="13">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="E197" s="13">
-        <v>-3000000</v>
+        <v>11950</v>
       </c>
       <c r="F197" s="13">
-        <v>-320.56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A198" s="11" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C198" s="13">
-        <v>320117.8</v>
+        <v>0</v>
       </c>
       <c r="D198" s="13">
-        <v>115.96</v>
+        <v>0</v>
       </c>
       <c r="E198" s="13">
-        <v>-2698663.2</v>
+        <v>43.68</v>
       </c>
       <c r="F198" s="13">
-        <v>-288.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A199" s="11" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C199" s="13">
         <v>0</v>
@@ -5453,18 +5601,18 @@
         <v>0</v>
       </c>
       <c r="E199" s="13">
-        <v>-176915</v>
+        <v>92.71</v>
       </c>
       <c r="F199" s="13">
-        <v>-18.9</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="200" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A200" s="11" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C200" s="13">
         <v>0</v>
@@ -5473,18 +5621,18 @@
         <v>0</v>
       </c>
       <c r="E200" s="13">
-        <v>-320117.8</v>
+        <v>2000</v>
       </c>
       <c r="F200" s="13">
-        <v>-34.21</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="201" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A201" s="11" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C201" s="13">
         <v>0</v>
@@ -5493,38 +5641,38 @@
         <v>0</v>
       </c>
       <c r="E201" s="13">
-        <v>-179136</v>
+        <v>95900</v>
       </c>
       <c r="F201" s="13">
-        <v>-19.14</v>
+        <v>8.02</v>
       </c>
     </row>
     <row r="202" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A202" s="11" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C202" s="13">
-        <v>0</v>
+        <v>12875</v>
       </c>
       <c r="D202" s="13">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="E202" s="13">
-        <v>-25563</v>
+        <v>12875</v>
       </c>
       <c r="F202" s="13">
-        <v>-2.73</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="203" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A203" s="11" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C203" s="13">
         <v>0</v>
@@ -5533,58 +5681,58 @@
         <v>0</v>
       </c>
       <c r="E203" s="13">
-        <v>-825000</v>
+        <v>2765.91</v>
       </c>
       <c r="F203" s="13">
-        <v>-88.15</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="204" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A204" s="11" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C204" s="13">
-        <v>-3317.04</v>
+        <v>1850</v>
       </c>
       <c r="D204" s="13">
-        <v>-1.2</v>
+        <v>0.71</v>
       </c>
       <c r="E204" s="13">
-        <v>-19273.34</v>
+        <v>1850</v>
       </c>
       <c r="F204" s="13">
-        <v>-2.06</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="205" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A205" s="11" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C205" s="13">
-        <v>272.64</v>
+        <v>0</v>
       </c>
       <c r="D205" s="13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E205" s="13">
-        <v>-698.36</v>
+        <v>28562.87</v>
       </c>
       <c r="F205" s="13">
-        <v>-0.07</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="206" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A206" s="11" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C206" s="13">
         <v>0</v>
@@ -5593,118 +5741,96 @@
         <v>0</v>
       </c>
       <c r="E206" s="13">
-        <v>-10346.49</v>
+        <v>84.13</v>
       </c>
       <c r="F206" s="13">
-        <v>-1.11</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="207" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A207" s="11" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="C207" s="13">
-        <v>-230566.19</v>
-      </c>
-      <c r="D207" s="13">
-        <v>-83.52</v>
-      </c>
-      <c r="E207" s="13">
-        <v>-234008.36</v>
-      </c>
-      <c r="F207" s="13">
-        <v>-25</v>
+        <v>371</v>
+      </c>
+      <c r="C207" s="15">
+        <v>0</v>
+      </c>
+      <c r="D207" s="15">
+        <v>0</v>
+      </c>
+      <c r="E207" s="15">
+        <v>15794.91</v>
+      </c>
+      <c r="F207" s="15">
+        <v>1.32</v>
       </c>
     </row>
     <row r="208" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A208" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="B208" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="C208" s="13">
-        <v>1262.37</v>
-      </c>
-      <c r="D208" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="E208" s="13">
-        <v>-2016.88</v>
-      </c>
-      <c r="F208" s="13">
-        <v>-0.22</v>
+      <c r="A208" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C208" s="18">
+        <v>43662.48</v>
+      </c>
+      <c r="D208" s="18">
+        <v>16.8</v>
+      </c>
+      <c r="E208" s="18">
+        <v>295119.17</v>
+      </c>
+      <c r="F208" s="18">
+        <v>24.68</v>
       </c>
     </row>
     <row r="209" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A209" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="B209" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="C209" s="13">
-        <v>0</v>
-      </c>
-      <c r="D209" s="13">
-        <v>0</v>
-      </c>
-      <c r="E209" s="13">
-        <v>-2381640</v>
-      </c>
-      <c r="F209" s="13">
-        <v>-254.49</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A210" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="B210" s="12" t="s">
+      <c r="A209" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="C210" s="13">
-        <v>0</v>
-      </c>
-      <c r="D210" s="13">
-        <v>0</v>
-      </c>
-      <c r="E210" s="13">
-        <v>-45708129.47</v>
-      </c>
-      <c r="F210" s="13">
-        <v>-4884.06</v>
-      </c>
+      <c r="B209" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C209" s="17">
+        <v>-147503.35</v>
+      </c>
+      <c r="D209" s="17">
+        <v>-56.76</v>
+      </c>
+      <c r="E209" s="17">
+        <v>-370057.19</v>
+      </c>
+      <c r="F209" s="17">
+        <v>-30.95</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="15" customHeight="1">
+      <c r="A210" s="11"/>
+      <c r="B210" s="12"/>
+      <c r="C210" s="19"/>
+      <c r="D210" s="19"/>
+      <c r="E210" s="19"/>
+      <c r="F210" s="19"/>
     </row>
     <row r="211" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A211" s="11" t="s">
-        <v>375</v>
-      </c>
+      <c r="A211" s="11"/>
       <c r="B211" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="C211" s="13">
-        <v>-74.79</v>
-      </c>
-      <c r="D211" s="13">
-        <v>-0.03</v>
-      </c>
-      <c r="E211" s="13">
-        <v>-2042.93</v>
-      </c>
-      <c r="F211" s="13">
-        <v>-0.22</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="C211" s="20"/>
+      <c r="D211" s="20"/>
+      <c r="E211" s="20"/>
+      <c r="F211" s="20"/>
     </row>
     <row r="212" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A212" s="11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C212" s="13">
         <v>0</v>
@@ -5713,58 +5839,58 @@
         <v>0</v>
       </c>
       <c r="E212" s="13">
-        <v>-20.37</v>
+        <v>-155465.75</v>
       </c>
       <c r="F212" s="13">
-        <v>0</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="213" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A213" s="11" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>307</v>
+        <v>380</v>
       </c>
       <c r="C213" s="13">
-        <v>-225</v>
+        <v>-800</v>
       </c>
       <c r="D213" s="13">
-        <v>-0.08</v>
+        <v>-0.31</v>
       </c>
       <c r="E213" s="13">
-        <v>-225</v>
+        <v>-800</v>
       </c>
       <c r="F213" s="13">
-        <v>-0.02</v>
+        <v>-0.07</v>
       </c>
     </row>
     <row r="214" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A214" s="11" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B214" s="12" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C214" s="13">
-        <v>0</v>
+        <v>166960</v>
       </c>
       <c r="D214" s="13">
-        <v>0</v>
+        <v>64.25</v>
       </c>
       <c r="E214" s="13">
-        <v>-140.03</v>
+        <v>-2833040</v>
       </c>
       <c r="F214" s="13">
-        <v>-0.02</v>
+        <v>-236.93</v>
       </c>
     </row>
     <row r="215" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A215" s="11" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B215" s="12" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C215" s="13">
         <v>0</v>
@@ -5773,238 +5899,258 @@
         <v>0</v>
       </c>
       <c r="E215" s="13">
-        <v>-890655</v>
+        <v>-2698663.2</v>
       </c>
       <c r="F215" s="13">
-        <v>-95.17</v>
+        <v>-225.69</v>
       </c>
     </row>
     <row r="216" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A216" s="11" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C216" s="13">
-        <v>0</v>
+        <v>156807.35</v>
       </c>
       <c r="D216" s="13">
-        <v>0</v>
+        <v>60.34</v>
       </c>
       <c r="E216" s="13">
-        <v>-538254.23</v>
+        <v>-20107.65</v>
       </c>
       <c r="F216" s="13">
-        <v>-57.51</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="15" customHeight="1">
-      <c r="A217" s="11"/>
-      <c r="B217" s="12"/>
-      <c r="C217" s="11"/>
-      <c r="D217" s="11"/>
-      <c r="E217" s="11"/>
-      <c r="F217" s="11"/>
+        <v>-1.68</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A217" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B217" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="C217" s="13">
+        <v>0</v>
+      </c>
+      <c r="D217" s="13">
+        <v>0</v>
+      </c>
+      <c r="E217" s="13">
+        <v>-320117.8</v>
+      </c>
+      <c r="F217" s="13">
+        <v>-26.77</v>
+      </c>
     </row>
     <row r="218" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A218" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="B218" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="C218" s="10"/>
-      <c r="D218" s="10"/>
-      <c r="E218" s="10"/>
-      <c r="F218" s="10"/>
+      <c r="A218" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="B218" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="C218" s="13">
+        <v>0</v>
+      </c>
+      <c r="D218" s="13">
+        <v>0</v>
+      </c>
+      <c r="E218" s="13">
+        <v>-179136</v>
+      </c>
+      <c r="F218" s="13">
+        <v>-14.98</v>
+      </c>
     </row>
     <row r="219" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A219" s="11" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C219" s="13">
-        <v>97156.46</v>
+        <v>0</v>
       </c>
       <c r="D219" s="13">
-        <v>35.19</v>
+        <v>0</v>
       </c>
       <c r="E219" s="13">
-        <v>101464.08</v>
+        <v>-25563</v>
       </c>
       <c r="F219" s="13">
-        <v>10.84</v>
+        <v>-2.14</v>
       </c>
     </row>
     <row r="220" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A220" s="11" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C220" s="13">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="D220" s="13">
-        <v>3.62</v>
+        <v>0</v>
       </c>
       <c r="E220" s="13">
-        <v>37363.17</v>
+        <v>-825000</v>
       </c>
       <c r="F220" s="13">
-        <v>3.99</v>
+        <v>-68.99</v>
       </c>
     </row>
     <row r="221" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A221" s="11" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B221" s="12" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C221" s="13">
-        <v>3536.35</v>
+        <v>8633.41</v>
       </c>
       <c r="D221" s="13">
-        <v>1.28</v>
+        <v>3.32</v>
       </c>
       <c r="E221" s="13">
-        <v>4061.37</v>
+        <v>-10639.93</v>
       </c>
       <c r="F221" s="13">
-        <v>0.43</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="222" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A222" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B222" s="12" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C222" s="13">
-        <v>-3180</v>
+        <v>803</v>
       </c>
       <c r="D222" s="13">
-        <v>-1.15</v>
+        <v>0.31</v>
       </c>
       <c r="E222" s="13">
-        <v>150730.75</v>
+        <v>104.64</v>
       </c>
       <c r="F222" s="13">
-        <v>16.11</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="223" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A223" s="11" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B223" s="12" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C223" s="13">
-        <v>122.6</v>
+        <v>751</v>
       </c>
       <c r="D223" s="13">
-        <v>0.04</v>
+        <v>0.29</v>
       </c>
       <c r="E223" s="13">
-        <v>4657.56</v>
+        <v>751</v>
       </c>
       <c r="F223" s="13">
-        <v>0.5</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="224" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A224" s="11" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B224" s="12" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C224" s="13">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="D224" s="13">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="E224" s="13">
-        <v>349.5</v>
+        <v>-10346.49</v>
       </c>
       <c r="F224" s="13">
-        <v>0.04</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="225" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A225" s="11" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B225" s="12" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C225" s="13">
-        <v>0</v>
+        <v>25113.5</v>
       </c>
       <c r="D225" s="13">
-        <v>0</v>
+        <v>9.66</v>
       </c>
       <c r="E225" s="13">
-        <v>9262.29</v>
+        <v>-208894.86</v>
       </c>
       <c r="F225" s="13">
-        <v>0.99</v>
+        <v>-17.47</v>
       </c>
     </row>
     <row r="226" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A226" s="11" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B226" s="12" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C226" s="13">
-        <v>0</v>
+        <v>-131717.39</v>
       </c>
       <c r="D226" s="13">
-        <v>0</v>
+        <v>-50.68</v>
       </c>
       <c r="E226" s="13">
-        <v>7597.38</v>
+        <v>-131717.39</v>
       </c>
       <c r="F226" s="13">
-        <v>0.81</v>
+        <v>-11.02</v>
       </c>
     </row>
     <row r="227" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A227" s="11" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B227" s="12" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C227" s="13">
-        <v>-17456.78</v>
+        <v>162.36</v>
       </c>
       <c r="D227" s="13">
-        <v>-6.32</v>
+        <v>0.06</v>
       </c>
       <c r="E227" s="13">
-        <v>0</v>
+        <v>-1854.52</v>
       </c>
       <c r="F227" s="13">
-        <v>0</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="228" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A228" s="11" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B228" s="12" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C228" s="13">
         <v>0</v>
@@ -6013,18 +6159,18 @@
         <v>0</v>
       </c>
       <c r="E228" s="13">
-        <v>21810000</v>
+        <v>-2381640</v>
       </c>
       <c r="F228" s="13">
-        <v>2330.47</v>
+        <v>-199.18</v>
       </c>
     </row>
     <row r="229" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A229" s="11" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B229" s="12" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C229" s="13">
         <v>0</v>
@@ -6033,315 +6179,715 @@
         <v>0</v>
       </c>
       <c r="E229" s="13">
-        <v>10440000</v>
+        <v>-45708129.47</v>
       </c>
       <c r="F229" s="13">
-        <v>1115.55</v>
+        <v>-3822.57</v>
       </c>
     </row>
     <row r="230" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A230" s="11" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B230" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="C230" s="15">
-        <v>0</v>
-      </c>
-      <c r="D230" s="15">
-        <v>0</v>
-      </c>
-      <c r="E230" s="15">
-        <v>23000000</v>
-      </c>
-      <c r="F230" s="15">
-        <v>2457.62</v>
+        <v>320</v>
+      </c>
+      <c r="C230" s="13">
+        <v>2042.93</v>
+      </c>
+      <c r="D230" s="13">
+        <v>0.79</v>
+      </c>
+      <c r="E230" s="13">
+        <v>0</v>
+      </c>
+      <c r="F230" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A231" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="B231" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="C231" s="14">
-        <v>90152.63</v>
-      </c>
-      <c r="D231" s="14">
-        <v>32.66</v>
-      </c>
-      <c r="E231" s="14">
-        <v>55565486.1</v>
-      </c>
-      <c r="F231" s="14">
-        <v>5937.35</v>
+      <c r="A231" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B231" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="C231" s="13">
+        <v>20.37</v>
+      </c>
+      <c r="D231" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="E231" s="13">
+        <v>0</v>
+      </c>
+      <c r="F231" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A232" s="11" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B232" s="12" t="s">
-        <v>414</v>
+        <v>335</v>
       </c>
       <c r="C232" s="13">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="D232" s="13">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="E232" s="13">
-        <v>2020500</v>
+        <v>0</v>
       </c>
       <c r="F232" s="13">
-        <v>215.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A233" s="11" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B233" s="12" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C233" s="13">
-        <v>0</v>
+        <v>140.03</v>
       </c>
       <c r="D233" s="13">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E233" s="13">
-        <v>-11973.81</v>
+        <v>0</v>
       </c>
       <c r="F233" s="13">
-        <v>-1.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A234" s="11" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C234" s="13">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="D234" s="13">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
       <c r="E234" s="13">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="F234" s="13">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" ht="15" customHeight="1">
-      <c r="A235" s="11"/>
-      <c r="B235" s="12"/>
-      <c r="C235" s="22"/>
-      <c r="D235" s="22"/>
-      <c r="E235" s="22"/>
-      <c r="F235" s="22"/>
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A235" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="B235" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="C235" s="13">
+        <v>0</v>
+      </c>
+      <c r="D235" s="13">
+        <v>0</v>
+      </c>
+      <c r="E235" s="13">
+        <v>-890655</v>
+      </c>
+      <c r="F235" s="13">
+        <v>-74.49</v>
+      </c>
     </row>
     <row r="236" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A236" s="11"/>
+      <c r="A236" s="11" t="s">
+        <v>423</v>
+      </c>
       <c r="B236" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="C236" s="21">
-        <v>177622.42</v>
-      </c>
-      <c r="D236" s="21">
-        <v>64.34</v>
-      </c>
-      <c r="E236" s="21">
-        <v>404901.08</v>
-      </c>
-      <c r="F236" s="21">
-        <v>43.26</v>
+        <v>424</v>
+      </c>
+      <c r="C236" s="13">
+        <v>0</v>
+      </c>
+      <c r="D236" s="13">
+        <v>0</v>
+      </c>
+      <c r="E236" s="13">
+        <v>-538254.23</v>
+      </c>
+      <c r="F236" s="13">
+        <v>-45.01</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="15" customHeight="1">
       <c r="A237" s="11"/>
       <c r="B237" s="12"/>
-      <c r="C237" s="22"/>
-      <c r="D237" s="22"/>
-      <c r="E237" s="22"/>
-      <c r="F237" s="22"/>
+      <c r="C237" s="11"/>
+      <c r="D237" s="11"/>
+      <c r="E237" s="11"/>
+      <c r="F237" s="11"/>
     </row>
     <row r="238" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A238" s="11"/>
-      <c r="B238" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="C238" s="21">
-        <v>-75131.44</v>
-      </c>
-      <c r="D238" s="21">
-        <v>-27.22</v>
-      </c>
-      <c r="E238" s="21">
+      <c r="A238" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C238" s="10"/>
+      <c r="D238" s="10"/>
+      <c r="E238" s="10"/>
+      <c r="F238" s="10"/>
+    </row>
+    <row r="239" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A239" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="B239" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="C239" s="13">
+        <v>-249.07</v>
+      </c>
+      <c r="D239" s="13">
+        <v>-0.1</v>
+      </c>
+      <c r="E239" s="13">
+        <v>101215.01</v>
+      </c>
+      <c r="F239" s="13">
+        <v>8.46</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A240" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="B240" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="C240" s="13">
+        <v>-37338.21</v>
+      </c>
+      <c r="D240" s="13">
+        <v>-14.37</v>
+      </c>
+      <c r="E240" s="13">
+        <v>24.96</v>
+      </c>
+      <c r="F240" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A241" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="B241" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="C241" s="13">
+        <v>-4061.37</v>
+      </c>
+      <c r="D241" s="13">
+        <v>-1.56</v>
+      </c>
+      <c r="E241" s="13">
+        <v>0</v>
+      </c>
+      <c r="F241" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A242" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="B242" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="C242" s="13">
+        <v>-1285</v>
+      </c>
+      <c r="D242" s="13">
+        <v>-0.49</v>
+      </c>
+      <c r="E242" s="13">
+        <v>149445.75</v>
+      </c>
+      <c r="F242" s="13">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A243" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B243" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="C243" s="13">
+        <v>-3015.83</v>
+      </c>
+      <c r="D243" s="13">
+        <v>-1.16</v>
+      </c>
+      <c r="E243" s="13">
+        <v>1641.73</v>
+      </c>
+      <c r="F243" s="13">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A244" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="B244" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="C244" s="13">
+        <v>225</v>
+      </c>
+      <c r="D244" s="13">
+        <v>0.09</v>
+      </c>
+      <c r="E244" s="13">
+        <v>574.5</v>
+      </c>
+      <c r="F244" s="13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A245" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="B245" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="C245" s="13">
+        <v>0</v>
+      </c>
+      <c r="D245" s="13">
+        <v>0</v>
+      </c>
+      <c r="E245" s="13">
+        <v>9262.29</v>
+      </c>
+      <c r="F245" s="13">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A246" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B246" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="C246" s="13">
+        <v>-7597.38</v>
+      </c>
+      <c r="D246" s="13">
+        <v>-2.92</v>
+      </c>
+      <c r="E246" s="13">
+        <v>0</v>
+      </c>
+      <c r="F246" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A247" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B247" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="C247" s="13">
+        <v>17658.94</v>
+      </c>
+      <c r="D247" s="13">
+        <v>6.8</v>
+      </c>
+      <c r="E247" s="13">
+        <v>17658.94</v>
+      </c>
+      <c r="F247" s="13">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A248" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="B248" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="C248" s="13">
+        <v>0</v>
+      </c>
+      <c r="D248" s="13">
+        <v>0</v>
+      </c>
+      <c r="E248" s="13">
+        <v>21810000</v>
+      </c>
+      <c r="F248" s="13">
+        <v>1823.97</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A249" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B249" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="C249" s="13">
+        <v>2018</v>
+      </c>
+      <c r="D249" s="13">
+        <v>0.78</v>
+      </c>
+      <c r="E249" s="13">
+        <v>2018</v>
+      </c>
+      <c r="F249" s="13">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A250" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B250" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="C250" s="13">
+        <v>0</v>
+      </c>
+      <c r="D250" s="13">
+        <v>0</v>
+      </c>
+      <c r="E250" s="13">
+        <v>10440000</v>
+      </c>
+      <c r="F250" s="13">
+        <v>873.1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A251" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="B251" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="C251" s="15">
+        <v>0</v>
+      </c>
+      <c r="D251" s="15">
+        <v>0</v>
+      </c>
+      <c r="E251" s="15">
+        <v>23000000</v>
+      </c>
+      <c r="F251" s="15">
+        <v>1923.49</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A252" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C252" s="14">
+        <v>-33644.92</v>
+      </c>
+      <c r="D252" s="14">
+        <v>-12.95</v>
+      </c>
+      <c r="E252" s="14">
+        <v>55531841.18</v>
+      </c>
+      <c r="F252" s="14">
+        <v>4644.13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A253" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B253" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="C253" s="13">
+        <v>0</v>
+      </c>
+      <c r="D253" s="13">
+        <v>0</v>
+      </c>
+      <c r="E253" s="13">
+        <v>2020500</v>
+      </c>
+      <c r="F253" s="13">
+        <v>168.97</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A254" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="B254" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="C254" s="13">
+        <v>0</v>
+      </c>
+      <c r="D254" s="13">
+        <v>0</v>
+      </c>
+      <c r="E254" s="13">
+        <v>-11973.81</v>
+      </c>
+      <c r="F254" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A255" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B255" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="C255" s="13">
+        <v>800</v>
+      </c>
+      <c r="D255" s="13">
+        <v>0.31</v>
+      </c>
+      <c r="E255" s="13">
+        <v>0</v>
+      </c>
+      <c r="F255" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="15" customHeight="1">
+      <c r="A256" s="11"/>
+      <c r="B256" s="12"/>
+      <c r="C256" s="22"/>
+      <c r="D256" s="22"/>
+      <c r="E256" s="22"/>
+      <c r="F256" s="22"/>
+    </row>
+    <row r="257" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A257" s="11"/>
+      <c r="B257" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="C257" s="21">
+        <v>195896.64</v>
+      </c>
+      <c r="D257" s="21">
+        <v>75.38</v>
+      </c>
+      <c r="E257" s="21">
+        <v>600797.72</v>
+      </c>
+      <c r="F257" s="21">
+        <v>50.24</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="15" customHeight="1">
+      <c r="A258" s="11"/>
+      <c r="B258" s="12"/>
+      <c r="C258" s="22"/>
+      <c r="D258" s="22"/>
+      <c r="E258" s="22"/>
+      <c r="F258" s="22"/>
+    </row>
+    <row r="259" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A259" s="11"/>
+      <c r="B259" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="C259" s="21">
+        <v>48393.29</v>
+      </c>
+      <c r="D259" s="21">
+        <v>18.62</v>
+      </c>
+      <c r="E259" s="21">
+        <v>230740.53</v>
+      </c>
+      <c r="F259" s="21">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="15" customHeight="1">
+      <c r="A260" s="11"/>
+      <c r="B260" s="11"/>
+      <c r="C260" s="11"/>
+      <c r="D260" s="11"/>
+      <c r="E260" s="11"/>
+      <c r="F260" s="11"/>
+    </row>
+    <row r="261" spans="1:6" ht="15" customHeight="1">
+      <c r="A261" s="11"/>
+      <c r="B261" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="D261" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="E261" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="F261" s="11"/>
+    </row>
+    <row r="262" spans="1:6" ht="15" customHeight="1">
+      <c r="A262" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="B262" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C262" s="13">
         <v>182347.24</v>
       </c>
-      <c r="F238" s="21">
-        <v>19.48</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" ht="15" customHeight="1">
-      <c r="A239" s="11"/>
-      <c r="B239" s="11"/>
-      <c r="C239" s="11"/>
-      <c r="D239" s="11"/>
-      <c r="E239" s="11"/>
-      <c r="F239" s="11"/>
-    </row>
-    <row r="240" spans="1:6" ht="15" customHeight="1">
-      <c r="A240" s="11"/>
-      <c r="B240" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="C240" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="D240" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="E240" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="F240" s="11"/>
-    </row>
-    <row r="241" spans="1:6" ht="15" customHeight="1">
-      <c r="A241" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="B241" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="C241" s="13">
-        <v>257478.68</v>
-      </c>
-      <c r="D241" s="13">
-        <v>182347.24</v>
-      </c>
-      <c r="E241" s="13">
-        <v>-75131.44</v>
-      </c>
-      <c r="F241" s="11"/>
-    </row>
-    <row r="242" spans="1:6" ht="15" customHeight="1">
-      <c r="A242" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="B242" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="C242" s="13">
+      <c r="D262" s="13">
+        <v>230740.53</v>
+      </c>
+      <c r="E262" s="13">
+        <v>48393.29</v>
+      </c>
+      <c r="F262" s="11"/>
+    </row>
+    <row r="263" spans="1:6" ht="15" customHeight="1">
+      <c r="A263" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="B263" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="C263" s="13">
         <v>155465.75</v>
       </c>
-      <c r="D242" s="13">
+      <c r="D263" s="13">
         <v>155465.75</v>
       </c>
-      <c r="E242" s="13">
-        <v>0</v>
-      </c>
-      <c r="F242" s="11"/>
-    </row>
-    <row r="243" spans="1:6" ht="15" customHeight="1">
-      <c r="A243" s="11"/>
-      <c r="B243" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="C243" s="23">
-        <v>412944.43</v>
-      </c>
-      <c r="D243" s="23">
+      <c r="E263" s="13">
+        <v>0</v>
+      </c>
+      <c r="F263" s="11"/>
+    </row>
+    <row r="264" spans="1:6" ht="15" customHeight="1">
+      <c r="A264" s="11"/>
+      <c r="B264" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C264" s="23">
         <v>337812.99</v>
       </c>
-      <c r="E243" s="23">
-        <v>-75131.44</v>
-      </c>
-      <c r="F243" s="11"/>
-    </row>
-    <row r="244" spans="1:6" ht="15" customHeight="1">
-      <c r="A244" s="11"/>
-      <c r="B244" s="11"/>
-      <c r="C244" s="11"/>
-      <c r="D244" s="11"/>
-      <c r="E244" s="11"/>
-      <c r="F244" s="11"/>
-    </row>
-    <row r="245" spans="1:6" ht="15" customHeight="1">
-      <c r="A245" s="11"/>
-      <c r="B245" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="C245" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="D245" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="E245" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="F245" s="11"/>
-    </row>
-    <row r="246" spans="1:6" ht="15" customHeight="1">
-      <c r="A246" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="B246" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="C246" s="13">
-        <v>0</v>
-      </c>
-      <c r="D246" s="13">
-        <v>182347.24</v>
-      </c>
-      <c r="E246" s="13">
-        <v>182347.24</v>
-      </c>
-      <c r="F246" s="11"/>
-    </row>
-    <row r="247" spans="1:6" ht="15" customHeight="1">
-      <c r="A247" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="B247" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="C247" s="13">
-        <v>0</v>
-      </c>
-      <c r="D247" s="13">
+      <c r="D264" s="23">
+        <v>386206.28</v>
+      </c>
+      <c r="E264" s="23">
+        <v>48393.29</v>
+      </c>
+      <c r="F264" s="11"/>
+    </row>
+    <row r="265" spans="1:6" ht="15" customHeight="1">
+      <c r="A265" s="11"/>
+      <c r="B265" s="11"/>
+      <c r="C265" s="11"/>
+      <c r="D265" s="11"/>
+      <c r="E265" s="11"/>
+      <c r="F265" s="11"/>
+    </row>
+    <row r="266" spans="1:6" ht="15" customHeight="1">
+      <c r="A266" s="11"/>
+      <c r="B266" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C266" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="D266" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="E266" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="F266" s="11"/>
+    </row>
+    <row r="267" spans="1:6" ht="15" customHeight="1">
+      <c r="A267" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="B267" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C267" s="13">
+        <v>0</v>
+      </c>
+      <c r="D267" s="13">
+        <v>230740.53</v>
+      </c>
+      <c r="E267" s="13">
+        <v>230740.53</v>
+      </c>
+      <c r="F267" s="11"/>
+    </row>
+    <row r="268" spans="1:6" ht="15" customHeight="1">
+      <c r="A268" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="B268" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="C268" s="13">
+        <v>0</v>
+      </c>
+      <c r="D268" s="13">
         <v>155465.75</v>
       </c>
-      <c r="E247" s="13">
+      <c r="E268" s="13">
         <v>155465.75</v>
       </c>
-      <c r="F247" s="11"/>
-    </row>
-    <row r="248" spans="1:6" ht="15" customHeight="1">
-      <c r="A248" s="11"/>
-      <c r="B248" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="C248" s="23">
-        <v>0</v>
-      </c>
-      <c r="D248" s="23">
-        <v>337812.99</v>
-      </c>
-      <c r="E248" s="23">
-        <v>337812.99</v>
-      </c>
-      <c r="F248" s="11"/>
+      <c r="F268" s="11"/>
+    </row>
+    <row r="269" spans="1:6" ht="15" customHeight="1">
+      <c r="A269" s="11"/>
+      <c r="B269" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C269" s="23">
+        <v>0</v>
+      </c>
+      <c r="D269" s="23">
+        <v>386206.28</v>
+      </c>
+      <c r="E269" s="23">
+        <v>386206.28</v>
+      </c>
+      <c r="F269" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6349,8 +6895,8 @@
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A239:F239"/>
-    <mergeCell ref="A244:F244"/>
+    <mergeCell ref="A260:F260"/>
+    <mergeCell ref="A265:F265"/>
   </mergeCells>
   <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.7" bottom="0.7" header="0.5" footer="0.5"/>
@@ -6449,10 +6995,6 @@
     <ignoredError sqref="B18" numberStoredAsText="1"/>
     <ignoredError sqref="A19" numberStoredAsText="1"/>
     <ignoredError sqref="B19" numberStoredAsText="1"/>
-    <ignoredError sqref="C19" numberStoredAsText="1"/>
-    <ignoredError sqref="D19" numberStoredAsText="1"/>
-    <ignoredError sqref="E19" numberStoredAsText="1"/>
-    <ignoredError sqref="F19" numberStoredAsText="1"/>
     <ignoredError sqref="A20" numberStoredAsText="1"/>
     <ignoredError sqref="B20" numberStoredAsText="1"/>
     <ignoredError sqref="C20" numberStoredAsText="1"/>
@@ -6461,6 +7003,10 @@
     <ignoredError sqref="F20" numberStoredAsText="1"/>
     <ignoredError sqref="A21" numberStoredAsText="1"/>
     <ignoredError sqref="B21" numberStoredAsText="1"/>
+    <ignoredError sqref="C21" numberStoredAsText="1"/>
+    <ignoredError sqref="D21" numberStoredAsText="1"/>
+    <ignoredError sqref="E21" numberStoredAsText="1"/>
+    <ignoredError sqref="F21" numberStoredAsText="1"/>
     <ignoredError sqref="A22" numberStoredAsText="1"/>
     <ignoredError sqref="B22" numberStoredAsText="1"/>
     <ignoredError sqref="A23" numberStoredAsText="1"/>
@@ -6485,22 +7031,10 @@
     <ignoredError sqref="B32" numberStoredAsText="1"/>
     <ignoredError sqref="A33" numberStoredAsText="1"/>
     <ignoredError sqref="B33" numberStoredAsText="1"/>
-    <ignoredError sqref="C33" numberStoredAsText="1"/>
-    <ignoredError sqref="D33" numberStoredAsText="1"/>
-    <ignoredError sqref="E33" numberStoredAsText="1"/>
-    <ignoredError sqref="F33" numberStoredAsText="1"/>
     <ignoredError sqref="A34" numberStoredAsText="1"/>
     <ignoredError sqref="B34" numberStoredAsText="1"/>
-    <ignoredError sqref="C34" numberStoredAsText="1"/>
-    <ignoredError sqref="D34" numberStoredAsText="1"/>
-    <ignoredError sqref="E34" numberStoredAsText="1"/>
-    <ignoredError sqref="F34" numberStoredAsText="1"/>
     <ignoredError sqref="A35" numberStoredAsText="1"/>
     <ignoredError sqref="B35" numberStoredAsText="1"/>
-    <ignoredError sqref="C35" numberStoredAsText="1"/>
-    <ignoredError sqref="D35" numberStoredAsText="1"/>
-    <ignoredError sqref="E35" numberStoredAsText="1"/>
-    <ignoredError sqref="F35" numberStoredAsText="1"/>
     <ignoredError sqref="A36" numberStoredAsText="1"/>
     <ignoredError sqref="B36" numberStoredAsText="1"/>
     <ignoredError sqref="C36" numberStoredAsText="1"/>
@@ -6509,10 +7043,22 @@
     <ignoredError sqref="F36" numberStoredAsText="1"/>
     <ignoredError sqref="A37" numberStoredAsText="1"/>
     <ignoredError sqref="B37" numberStoredAsText="1"/>
+    <ignoredError sqref="C37" numberStoredAsText="1"/>
+    <ignoredError sqref="D37" numberStoredAsText="1"/>
+    <ignoredError sqref="E37" numberStoredAsText="1"/>
+    <ignoredError sqref="F37" numberStoredAsText="1"/>
     <ignoredError sqref="A38" numberStoredAsText="1"/>
     <ignoredError sqref="B38" numberStoredAsText="1"/>
+    <ignoredError sqref="C38" numberStoredAsText="1"/>
+    <ignoredError sqref="D38" numberStoredAsText="1"/>
+    <ignoredError sqref="E38" numberStoredAsText="1"/>
+    <ignoredError sqref="F38" numberStoredAsText="1"/>
     <ignoredError sqref="A39" numberStoredAsText="1"/>
     <ignoredError sqref="B39" numberStoredAsText="1"/>
+    <ignoredError sqref="C39" numberStoredAsText="1"/>
+    <ignoredError sqref="D39" numberStoredAsText="1"/>
+    <ignoredError sqref="E39" numberStoredAsText="1"/>
+    <ignoredError sqref="F39" numberStoredAsText="1"/>
     <ignoredError sqref="A40" numberStoredAsText="1"/>
     <ignoredError sqref="B40" numberStoredAsText="1"/>
     <ignoredError sqref="A41" numberStoredAsText="1"/>
@@ -6541,16 +7087,8 @@
     <ignoredError sqref="B52" numberStoredAsText="1"/>
     <ignoredError sqref="A53" numberStoredAsText="1"/>
     <ignoredError sqref="B53" numberStoredAsText="1"/>
-    <ignoredError sqref="C53" numberStoredAsText="1"/>
-    <ignoredError sqref="D53" numberStoredAsText="1"/>
-    <ignoredError sqref="E53" numberStoredAsText="1"/>
-    <ignoredError sqref="F53" numberStoredAsText="1"/>
     <ignoredError sqref="A54" numberStoredAsText="1"/>
     <ignoredError sqref="B54" numberStoredAsText="1"/>
-    <ignoredError sqref="C54" numberStoredAsText="1"/>
-    <ignoredError sqref="D54" numberStoredAsText="1"/>
-    <ignoredError sqref="E54" numberStoredAsText="1"/>
-    <ignoredError sqref="F54" numberStoredAsText="1"/>
     <ignoredError sqref="A55" numberStoredAsText="1"/>
     <ignoredError sqref="B55" numberStoredAsText="1"/>
     <ignoredError sqref="A56" numberStoredAsText="1"/>
@@ -6569,24 +7107,32 @@
     <ignoredError sqref="F58" numberStoredAsText="1"/>
     <ignoredError sqref="A59" numberStoredAsText="1"/>
     <ignoredError sqref="B59" numberStoredAsText="1"/>
-    <ignoredError sqref="C59" numberStoredAsText="1"/>
-    <ignoredError sqref="D59" numberStoredAsText="1"/>
-    <ignoredError sqref="E59" numberStoredAsText="1"/>
-    <ignoredError sqref="F59" numberStoredAsText="1"/>
     <ignoredError sqref="A60" numberStoredAsText="1"/>
     <ignoredError sqref="B60" numberStoredAsText="1"/>
-    <ignoredError sqref="C60" numberStoredAsText="1"/>
-    <ignoredError sqref="D60" numberStoredAsText="1"/>
-    <ignoredError sqref="E60" numberStoredAsText="1"/>
-    <ignoredError sqref="F60" numberStoredAsText="1"/>
     <ignoredError sqref="A61" numberStoredAsText="1"/>
     <ignoredError sqref="B61" numberStoredAsText="1"/>
+    <ignoredError sqref="C61" numberStoredAsText="1"/>
+    <ignoredError sqref="D61" numberStoredAsText="1"/>
+    <ignoredError sqref="E61" numberStoredAsText="1"/>
+    <ignoredError sqref="F61" numberStoredAsText="1"/>
     <ignoredError sqref="A62" numberStoredAsText="1"/>
     <ignoredError sqref="B62" numberStoredAsText="1"/>
+    <ignoredError sqref="C62" numberStoredAsText="1"/>
+    <ignoredError sqref="D62" numberStoredAsText="1"/>
+    <ignoredError sqref="E62" numberStoredAsText="1"/>
+    <ignoredError sqref="F62" numberStoredAsText="1"/>
     <ignoredError sqref="A63" numberStoredAsText="1"/>
     <ignoredError sqref="B63" numberStoredAsText="1"/>
+    <ignoredError sqref="C63" numberStoredAsText="1"/>
+    <ignoredError sqref="D63" numberStoredAsText="1"/>
+    <ignoredError sqref="E63" numberStoredAsText="1"/>
+    <ignoredError sqref="F63" numberStoredAsText="1"/>
     <ignoredError sqref="A64" numberStoredAsText="1"/>
     <ignoredError sqref="B64" numberStoredAsText="1"/>
+    <ignoredError sqref="C64" numberStoredAsText="1"/>
+    <ignoredError sqref="D64" numberStoredAsText="1"/>
+    <ignoredError sqref="E64" numberStoredAsText="1"/>
+    <ignoredError sqref="F64" numberStoredAsText="1"/>
     <ignoredError sqref="A65" numberStoredAsText="1"/>
     <ignoredError sqref="B65" numberStoredAsText="1"/>
     <ignoredError sqref="A66" numberStoredAsText="1"/>
@@ -6601,16 +7147,8 @@
     <ignoredError sqref="B70" numberStoredAsText="1"/>
     <ignoredError sqref="A71" numberStoredAsText="1"/>
     <ignoredError sqref="B71" numberStoredAsText="1"/>
-    <ignoredError sqref="C71" numberStoredAsText="1"/>
-    <ignoredError sqref="D71" numberStoredAsText="1"/>
-    <ignoredError sqref="E71" numberStoredAsText="1"/>
-    <ignoredError sqref="F71" numberStoredAsText="1"/>
     <ignoredError sqref="A72" numberStoredAsText="1"/>
     <ignoredError sqref="B72" numberStoredAsText="1"/>
-    <ignoredError sqref="C72" numberStoredAsText="1"/>
-    <ignoredError sqref="D72" numberStoredAsText="1"/>
-    <ignoredError sqref="E72" numberStoredAsText="1"/>
-    <ignoredError sqref="F72" numberStoredAsText="1"/>
     <ignoredError sqref="A73" numberStoredAsText="1"/>
     <ignoredError sqref="B73" numberStoredAsText="1"/>
     <ignoredError sqref="A74" numberStoredAsText="1"/>
@@ -6619,8 +7157,16 @@
     <ignoredError sqref="B75" numberStoredAsText="1"/>
     <ignoredError sqref="A76" numberStoredAsText="1"/>
     <ignoredError sqref="B76" numberStoredAsText="1"/>
+    <ignoredError sqref="C76" numberStoredAsText="1"/>
+    <ignoredError sqref="D76" numberStoredAsText="1"/>
+    <ignoredError sqref="E76" numberStoredAsText="1"/>
+    <ignoredError sqref="F76" numberStoredAsText="1"/>
     <ignoredError sqref="A77" numberStoredAsText="1"/>
     <ignoredError sqref="B77" numberStoredAsText="1"/>
+    <ignoredError sqref="C77" numberStoredAsText="1"/>
+    <ignoredError sqref="D77" numberStoredAsText="1"/>
+    <ignoredError sqref="E77" numberStoredAsText="1"/>
+    <ignoredError sqref="F77" numberStoredAsText="1"/>
     <ignoredError sqref="A78" numberStoredAsText="1"/>
     <ignoredError sqref="B78" numberStoredAsText="1"/>
     <ignoredError sqref="A79" numberStoredAsText="1"/>
@@ -6635,16 +7181,8 @@
     <ignoredError sqref="B83" numberStoredAsText="1"/>
     <ignoredError sqref="A84" numberStoredAsText="1"/>
     <ignoredError sqref="B84" numberStoredAsText="1"/>
-    <ignoredError sqref="C84" numberStoredAsText="1"/>
-    <ignoredError sqref="D84" numberStoredAsText="1"/>
-    <ignoredError sqref="E84" numberStoredAsText="1"/>
-    <ignoredError sqref="F84" numberStoredAsText="1"/>
     <ignoredError sqref="A85" numberStoredAsText="1"/>
     <ignoredError sqref="B85" numberStoredAsText="1"/>
-    <ignoredError sqref="C85" numberStoredAsText="1"/>
-    <ignoredError sqref="D85" numberStoredAsText="1"/>
-    <ignoredError sqref="E85" numberStoredAsText="1"/>
-    <ignoredError sqref="F85" numberStoredAsText="1"/>
     <ignoredError sqref="A86" numberStoredAsText="1"/>
     <ignoredError sqref="B86" numberStoredAsText="1"/>
     <ignoredError sqref="A87" numberStoredAsText="1"/>
@@ -6653,6 +7191,10 @@
     <ignoredError sqref="B88" numberStoredAsText="1"/>
     <ignoredError sqref="A89" numberStoredAsText="1"/>
     <ignoredError sqref="B89" numberStoredAsText="1"/>
+    <ignoredError sqref="C89" numberStoredAsText="1"/>
+    <ignoredError sqref="D89" numberStoredAsText="1"/>
+    <ignoredError sqref="E89" numberStoredAsText="1"/>
+    <ignoredError sqref="F89" numberStoredAsText="1"/>
     <ignoredError sqref="A90" numberStoredAsText="1"/>
     <ignoredError sqref="B90" numberStoredAsText="1"/>
     <ignoredError sqref="C90" numberStoredAsText="1"/>
@@ -6661,10 +7203,6 @@
     <ignoredError sqref="F90" numberStoredAsText="1"/>
     <ignoredError sqref="A91" numberStoredAsText="1"/>
     <ignoredError sqref="B91" numberStoredAsText="1"/>
-    <ignoredError sqref="C91" numberStoredAsText="1"/>
-    <ignoredError sqref="D91" numberStoredAsText="1"/>
-    <ignoredError sqref="E91" numberStoredAsText="1"/>
-    <ignoredError sqref="F91" numberStoredAsText="1"/>
     <ignoredError sqref="A92" numberStoredAsText="1"/>
     <ignoredError sqref="B92" numberStoredAsText="1"/>
     <ignoredError sqref="A93" numberStoredAsText="1"/>
@@ -6677,8 +7215,16 @@
     <ignoredError sqref="B96" numberStoredAsText="1"/>
     <ignoredError sqref="A97" numberStoredAsText="1"/>
     <ignoredError sqref="B97" numberStoredAsText="1"/>
+    <ignoredError sqref="C97" numberStoredAsText="1"/>
+    <ignoredError sqref="D97" numberStoredAsText="1"/>
+    <ignoredError sqref="E97" numberStoredAsText="1"/>
+    <ignoredError sqref="F97" numberStoredAsText="1"/>
     <ignoredError sqref="A98" numberStoredAsText="1"/>
     <ignoredError sqref="B98" numberStoredAsText="1"/>
+    <ignoredError sqref="C98" numberStoredAsText="1"/>
+    <ignoredError sqref="D98" numberStoredAsText="1"/>
+    <ignoredError sqref="E98" numberStoredAsText="1"/>
+    <ignoredError sqref="F98" numberStoredAsText="1"/>
     <ignoredError sqref="A99" numberStoredAsText="1"/>
     <ignoredError sqref="B99" numberStoredAsText="1"/>
     <ignoredError sqref="A100" numberStoredAsText="1"/>
@@ -6725,16 +7271,8 @@
     <ignoredError sqref="B120" numberStoredAsText="1"/>
     <ignoredError sqref="A121" numberStoredAsText="1"/>
     <ignoredError sqref="B121" numberStoredAsText="1"/>
-    <ignoredError sqref="C121" numberStoredAsText="1"/>
-    <ignoredError sqref="D121" numberStoredAsText="1"/>
-    <ignoredError sqref="E121" numberStoredAsText="1"/>
-    <ignoredError sqref="F121" numberStoredAsText="1"/>
     <ignoredError sqref="A122" numberStoredAsText="1"/>
     <ignoredError sqref="B122" numberStoredAsText="1"/>
-    <ignoredError sqref="C122" numberStoredAsText="1"/>
-    <ignoredError sqref="D122" numberStoredAsText="1"/>
-    <ignoredError sqref="E122" numberStoredAsText="1"/>
-    <ignoredError sqref="F122" numberStoredAsText="1"/>
     <ignoredError sqref="A123" numberStoredAsText="1"/>
     <ignoredError sqref="B123" numberStoredAsText="1"/>
     <ignoredError sqref="A124" numberStoredAsText="1"/>
@@ -6747,8 +7285,16 @@
     <ignoredError sqref="B127" numberStoredAsText="1"/>
     <ignoredError sqref="A128" numberStoredAsText="1"/>
     <ignoredError sqref="B128" numberStoredAsText="1"/>
+    <ignoredError sqref="C128" numberStoredAsText="1"/>
+    <ignoredError sqref="D128" numberStoredAsText="1"/>
+    <ignoredError sqref="E128" numberStoredAsText="1"/>
+    <ignoredError sqref="F128" numberStoredAsText="1"/>
     <ignoredError sqref="A129" numberStoredAsText="1"/>
     <ignoredError sqref="B129" numberStoredAsText="1"/>
+    <ignoredError sqref="C129" numberStoredAsText="1"/>
+    <ignoredError sqref="D129" numberStoredAsText="1"/>
+    <ignoredError sqref="E129" numberStoredAsText="1"/>
+    <ignoredError sqref="F129" numberStoredAsText="1"/>
     <ignoredError sqref="A130" numberStoredAsText="1"/>
     <ignoredError sqref="B130" numberStoredAsText="1"/>
     <ignoredError sqref="A131" numberStoredAsText="1"/>
@@ -6759,16 +7305,8 @@
     <ignoredError sqref="B133" numberStoredAsText="1"/>
     <ignoredError sqref="A134" numberStoredAsText="1"/>
     <ignoredError sqref="B134" numberStoredAsText="1"/>
-    <ignoredError sqref="C134" numberStoredAsText="1"/>
-    <ignoredError sqref="D134" numberStoredAsText="1"/>
-    <ignoredError sqref="E134" numberStoredAsText="1"/>
-    <ignoredError sqref="F134" numberStoredAsText="1"/>
     <ignoredError sqref="A135" numberStoredAsText="1"/>
     <ignoredError sqref="B135" numberStoredAsText="1"/>
-    <ignoredError sqref="C135" numberStoredAsText="1"/>
-    <ignoredError sqref="D135" numberStoredAsText="1"/>
-    <ignoredError sqref="E135" numberStoredAsText="1"/>
-    <ignoredError sqref="F135" numberStoredAsText="1"/>
     <ignoredError sqref="A136" numberStoredAsText="1"/>
     <ignoredError sqref="B136" numberStoredAsText="1"/>
     <ignoredError sqref="A137" numberStoredAsText="1"/>
@@ -6783,20 +7321,20 @@
     <ignoredError sqref="B141" numberStoredAsText="1"/>
     <ignoredError sqref="A142" numberStoredAsText="1"/>
     <ignoredError sqref="B142" numberStoredAsText="1"/>
+    <ignoredError sqref="C142" numberStoredAsText="1"/>
+    <ignoredError sqref="D142" numberStoredAsText="1"/>
+    <ignoredError sqref="E142" numberStoredAsText="1"/>
+    <ignoredError sqref="F142" numberStoredAsText="1"/>
     <ignoredError sqref="A143" numberStoredAsText="1"/>
     <ignoredError sqref="B143" numberStoredAsText="1"/>
+    <ignoredError sqref="C143" numberStoredAsText="1"/>
+    <ignoredError sqref="D143" numberStoredAsText="1"/>
+    <ignoredError sqref="E143" numberStoredAsText="1"/>
+    <ignoredError sqref="F143" numberStoredAsText="1"/>
     <ignoredError sqref="A144" numberStoredAsText="1"/>
     <ignoredError sqref="B144" numberStoredAsText="1"/>
-    <ignoredError sqref="C144" numberStoredAsText="1"/>
-    <ignoredError sqref="D144" numberStoredAsText="1"/>
-    <ignoredError sqref="E144" numberStoredAsText="1"/>
-    <ignoredError sqref="F144" numberStoredAsText="1"/>
     <ignoredError sqref="A145" numberStoredAsText="1"/>
     <ignoredError sqref="B145" numberStoredAsText="1"/>
-    <ignoredError sqref="C145" numberStoredAsText="1"/>
-    <ignoredError sqref="D145" numberStoredAsText="1"/>
-    <ignoredError sqref="E145" numberStoredAsText="1"/>
-    <ignoredError sqref="F145" numberStoredAsText="1"/>
     <ignoredError sqref="A146" numberStoredAsText="1"/>
     <ignoredError sqref="B146" numberStoredAsText="1"/>
     <ignoredError sqref="A147" numberStoredAsText="1"/>
@@ -6829,54 +7367,46 @@
     <ignoredError sqref="B156" numberStoredAsText="1"/>
     <ignoredError sqref="A157" numberStoredAsText="1"/>
     <ignoredError sqref="B157" numberStoredAsText="1"/>
-    <ignoredError sqref="C157" numberStoredAsText="1"/>
-    <ignoredError sqref="D157" numberStoredAsText="1"/>
-    <ignoredError sqref="E157" numberStoredAsText="1"/>
-    <ignoredError sqref="F157" numberStoredAsText="1"/>
     <ignoredError sqref="A158" numberStoredAsText="1"/>
     <ignoredError sqref="B158" numberStoredAsText="1"/>
-    <ignoredError sqref="C158" numberStoredAsText="1"/>
-    <ignoredError sqref="D158" numberStoredAsText="1"/>
-    <ignoredError sqref="E158" numberStoredAsText="1"/>
-    <ignoredError sqref="F158" numberStoredAsText="1"/>
     <ignoredError sqref="A159" numberStoredAsText="1"/>
     <ignoredError sqref="B159" numberStoredAsText="1"/>
     <ignoredError sqref="A160" numberStoredAsText="1"/>
     <ignoredError sqref="B160" numberStoredAsText="1"/>
     <ignoredError sqref="A161" numberStoredAsText="1"/>
     <ignoredError sqref="B161" numberStoredAsText="1"/>
-    <ignoredError sqref="C161" numberStoredAsText="1"/>
-    <ignoredError sqref="D161" numberStoredAsText="1"/>
-    <ignoredError sqref="E161" numberStoredAsText="1"/>
-    <ignoredError sqref="F161" numberStoredAsText="1"/>
     <ignoredError sqref="A162" numberStoredAsText="1"/>
     <ignoredError sqref="B162" numberStoredAsText="1"/>
-    <ignoredError sqref="C162" numberStoredAsText="1"/>
-    <ignoredError sqref="D162" numberStoredAsText="1"/>
-    <ignoredError sqref="E162" numberStoredAsText="1"/>
-    <ignoredError sqref="F162" numberStoredAsText="1"/>
     <ignoredError sqref="A163" numberStoredAsText="1"/>
     <ignoredError sqref="B163" numberStoredAsText="1"/>
+    <ignoredError sqref="C163" numberStoredAsText="1"/>
+    <ignoredError sqref="D163" numberStoredAsText="1"/>
+    <ignoredError sqref="E163" numberStoredAsText="1"/>
+    <ignoredError sqref="F163" numberStoredAsText="1"/>
     <ignoredError sqref="A164" numberStoredAsText="1"/>
     <ignoredError sqref="B164" numberStoredAsText="1"/>
+    <ignoredError sqref="C164" numberStoredAsText="1"/>
+    <ignoredError sqref="D164" numberStoredAsText="1"/>
+    <ignoredError sqref="E164" numberStoredAsText="1"/>
+    <ignoredError sqref="F164" numberStoredAsText="1"/>
     <ignoredError sqref="A165" numberStoredAsText="1"/>
     <ignoredError sqref="B165" numberStoredAsText="1"/>
-    <ignoredError sqref="C165" numberStoredAsText="1"/>
-    <ignoredError sqref="D165" numberStoredAsText="1"/>
-    <ignoredError sqref="E165" numberStoredAsText="1"/>
-    <ignoredError sqref="F165" numberStoredAsText="1"/>
     <ignoredError sqref="A166" numberStoredAsText="1"/>
     <ignoredError sqref="B166" numberStoredAsText="1"/>
-    <ignoredError sqref="C166" numberStoredAsText="1"/>
-    <ignoredError sqref="D166" numberStoredAsText="1"/>
-    <ignoredError sqref="E166" numberStoredAsText="1"/>
-    <ignoredError sqref="F166" numberStoredAsText="1"/>
     <ignoredError sqref="A167" numberStoredAsText="1"/>
     <ignoredError sqref="B167" numberStoredAsText="1"/>
     <ignoredError sqref="A168" numberStoredAsText="1"/>
     <ignoredError sqref="B168" numberStoredAsText="1"/>
+    <ignoredError sqref="C168" numberStoredAsText="1"/>
+    <ignoredError sqref="D168" numberStoredAsText="1"/>
+    <ignoredError sqref="E168" numberStoredAsText="1"/>
+    <ignoredError sqref="F168" numberStoredAsText="1"/>
     <ignoredError sqref="A169" numberStoredAsText="1"/>
     <ignoredError sqref="B169" numberStoredAsText="1"/>
+    <ignoredError sqref="C169" numberStoredAsText="1"/>
+    <ignoredError sqref="D169" numberStoredAsText="1"/>
+    <ignoredError sqref="E169" numberStoredAsText="1"/>
+    <ignoredError sqref="F169" numberStoredAsText="1"/>
     <ignoredError sqref="A170" numberStoredAsText="1"/>
     <ignoredError sqref="B170" numberStoredAsText="1"/>
     <ignoredError sqref="A171" numberStoredAsText="1"/>
@@ -6887,16 +7417,32 @@
     <ignoredError sqref="B173" numberStoredAsText="1"/>
     <ignoredError sqref="A174" numberStoredAsText="1"/>
     <ignoredError sqref="B174" numberStoredAsText="1"/>
+    <ignoredError sqref="C174" numberStoredAsText="1"/>
+    <ignoredError sqref="D174" numberStoredAsText="1"/>
+    <ignoredError sqref="E174" numberStoredAsText="1"/>
+    <ignoredError sqref="F174" numberStoredAsText="1"/>
     <ignoredError sqref="A175" numberStoredAsText="1"/>
     <ignoredError sqref="B175" numberStoredAsText="1"/>
+    <ignoredError sqref="C175" numberStoredAsText="1"/>
+    <ignoredError sqref="D175" numberStoredAsText="1"/>
+    <ignoredError sqref="E175" numberStoredAsText="1"/>
+    <ignoredError sqref="F175" numberStoredAsText="1"/>
     <ignoredError sqref="A176" numberStoredAsText="1"/>
     <ignoredError sqref="B176" numberStoredAsText="1"/>
     <ignoredError sqref="A177" numberStoredAsText="1"/>
     <ignoredError sqref="B177" numberStoredAsText="1"/>
     <ignoredError sqref="A178" numberStoredAsText="1"/>
     <ignoredError sqref="B178" numberStoredAsText="1"/>
+    <ignoredError sqref="C178" numberStoredAsText="1"/>
+    <ignoredError sqref="D178" numberStoredAsText="1"/>
+    <ignoredError sqref="E178" numberStoredAsText="1"/>
+    <ignoredError sqref="F178" numberStoredAsText="1"/>
     <ignoredError sqref="A179" numberStoredAsText="1"/>
     <ignoredError sqref="B179" numberStoredAsText="1"/>
+    <ignoredError sqref="C179" numberStoredAsText="1"/>
+    <ignoredError sqref="D179" numberStoredAsText="1"/>
+    <ignoredError sqref="E179" numberStoredAsText="1"/>
+    <ignoredError sqref="F179" numberStoredAsText="1"/>
     <ignoredError sqref="A180" numberStoredAsText="1"/>
     <ignoredError sqref="B180" numberStoredAsText="1"/>
     <ignoredError sqref="A181" numberStoredAsText="1"/>
@@ -6927,16 +7473,8 @@
     <ignoredError sqref="B193" numberStoredAsText="1"/>
     <ignoredError sqref="A194" numberStoredAsText="1"/>
     <ignoredError sqref="B194" numberStoredAsText="1"/>
-    <ignoredError sqref="C194" numberStoredAsText="1"/>
-    <ignoredError sqref="D194" numberStoredAsText="1"/>
-    <ignoredError sqref="E194" numberStoredAsText="1"/>
-    <ignoredError sqref="F194" numberStoredAsText="1"/>
     <ignoredError sqref="A195" numberStoredAsText="1"/>
     <ignoredError sqref="B195" numberStoredAsText="1"/>
-    <ignoredError sqref="C195" numberStoredAsText="1"/>
-    <ignoredError sqref="D195" numberStoredAsText="1"/>
-    <ignoredError sqref="E195" numberStoredAsText="1"/>
-    <ignoredError sqref="F195" numberStoredAsText="1"/>
     <ignoredError sqref="A196" numberStoredAsText="1"/>
     <ignoredError sqref="B196" numberStoredAsText="1"/>
     <ignoredError sqref="A197" numberStoredAsText="1"/>
@@ -6967,8 +7505,16 @@
     <ignoredError sqref="B209" numberStoredAsText="1"/>
     <ignoredError sqref="A210" numberStoredAsText="1"/>
     <ignoredError sqref="B210" numberStoredAsText="1"/>
+    <ignoredError sqref="C210" numberStoredAsText="1"/>
+    <ignoredError sqref="D210" numberStoredAsText="1"/>
+    <ignoredError sqref="E210" numberStoredAsText="1"/>
+    <ignoredError sqref="F210" numberStoredAsText="1"/>
     <ignoredError sqref="A211" numberStoredAsText="1"/>
     <ignoredError sqref="B211" numberStoredAsText="1"/>
+    <ignoredError sqref="C211" numberStoredAsText="1"/>
+    <ignoredError sqref="D211" numberStoredAsText="1"/>
+    <ignoredError sqref="E211" numberStoredAsText="1"/>
+    <ignoredError sqref="F211" numberStoredAsText="1"/>
     <ignoredError sqref="A212" numberStoredAsText="1"/>
     <ignoredError sqref="B212" numberStoredAsText="1"/>
     <ignoredError sqref="A213" numberStoredAsText="1"/>
@@ -6981,16 +7527,8 @@
     <ignoredError sqref="B216" numberStoredAsText="1"/>
     <ignoredError sqref="A217" numberStoredAsText="1"/>
     <ignoredError sqref="B217" numberStoredAsText="1"/>
-    <ignoredError sqref="C217" numberStoredAsText="1"/>
-    <ignoredError sqref="D217" numberStoredAsText="1"/>
-    <ignoredError sqref="E217" numberStoredAsText="1"/>
-    <ignoredError sqref="F217" numberStoredAsText="1"/>
     <ignoredError sqref="A218" numberStoredAsText="1"/>
     <ignoredError sqref="B218" numberStoredAsText="1"/>
-    <ignoredError sqref="C218" numberStoredAsText="1"/>
-    <ignoredError sqref="D218" numberStoredAsText="1"/>
-    <ignoredError sqref="E218" numberStoredAsText="1"/>
-    <ignoredError sqref="F218" numberStoredAsText="1"/>
     <ignoredError sqref="A219" numberStoredAsText="1"/>
     <ignoredError sqref="B219" numberStoredAsText="1"/>
     <ignoredError sqref="A220" numberStoredAsText="1"/>
@@ -7025,10 +7563,6 @@
     <ignoredError sqref="B234" numberStoredAsText="1"/>
     <ignoredError sqref="A235" numberStoredAsText="1"/>
     <ignoredError sqref="B235" numberStoredAsText="1"/>
-    <ignoredError sqref="C235" numberStoredAsText="1"/>
-    <ignoredError sqref="D235" numberStoredAsText="1"/>
-    <ignoredError sqref="E235" numberStoredAsText="1"/>
-    <ignoredError sqref="F235" numberStoredAsText="1"/>
     <ignoredError sqref="A236" numberStoredAsText="1"/>
     <ignoredError sqref="B236" numberStoredAsText="1"/>
     <ignoredError sqref="A237" numberStoredAsText="1"/>
@@ -7039,48 +7573,102 @@
     <ignoredError sqref="F237" numberStoredAsText="1"/>
     <ignoredError sqref="A238" numberStoredAsText="1"/>
     <ignoredError sqref="B238" numberStoredAsText="1"/>
+    <ignoredError sqref="C238" numberStoredAsText="1"/>
+    <ignoredError sqref="D238" numberStoredAsText="1"/>
+    <ignoredError sqref="E238" numberStoredAsText="1"/>
+    <ignoredError sqref="F238" numberStoredAsText="1"/>
     <ignoredError sqref="A239" numberStoredAsText="1"/>
     <ignoredError sqref="B239" numberStoredAsText="1"/>
-    <ignoredError sqref="C239" numberStoredAsText="1"/>
-    <ignoredError sqref="D239" numberStoredAsText="1"/>
-    <ignoredError sqref="E239" numberStoredAsText="1"/>
-    <ignoredError sqref="F239" numberStoredAsText="1"/>
     <ignoredError sqref="A240" numberStoredAsText="1"/>
     <ignoredError sqref="B240" numberStoredAsText="1"/>
-    <ignoredError sqref="C240" numberStoredAsText="1"/>
-    <ignoredError sqref="D240" numberStoredAsText="1"/>
-    <ignoredError sqref="E240" numberStoredAsText="1"/>
-    <ignoredError sqref="F240" numberStoredAsText="1"/>
     <ignoredError sqref="A241" numberStoredAsText="1"/>
     <ignoredError sqref="B241" numberStoredAsText="1"/>
-    <ignoredError sqref="F241" numberStoredAsText="1"/>
     <ignoredError sqref="A242" numberStoredAsText="1"/>
     <ignoredError sqref="B242" numberStoredAsText="1"/>
-    <ignoredError sqref="F242" numberStoredAsText="1"/>
     <ignoredError sqref="A243" numberStoredAsText="1"/>
     <ignoredError sqref="B243" numberStoredAsText="1"/>
-    <ignoredError sqref="F243" numberStoredAsText="1"/>
     <ignoredError sqref="A244" numberStoredAsText="1"/>
     <ignoredError sqref="B244" numberStoredAsText="1"/>
-    <ignoredError sqref="C244" numberStoredAsText="1"/>
-    <ignoredError sqref="D244" numberStoredAsText="1"/>
-    <ignoredError sqref="E244" numberStoredAsText="1"/>
-    <ignoredError sqref="F244" numberStoredAsText="1"/>
     <ignoredError sqref="A245" numberStoredAsText="1"/>
     <ignoredError sqref="B245" numberStoredAsText="1"/>
-    <ignoredError sqref="C245" numberStoredAsText="1"/>
-    <ignoredError sqref="D245" numberStoredAsText="1"/>
-    <ignoredError sqref="E245" numberStoredAsText="1"/>
-    <ignoredError sqref="F245" numberStoredAsText="1"/>
     <ignoredError sqref="A246" numberStoredAsText="1"/>
     <ignoredError sqref="B246" numberStoredAsText="1"/>
-    <ignoredError sqref="F246" numberStoredAsText="1"/>
     <ignoredError sqref="A247" numberStoredAsText="1"/>
     <ignoredError sqref="B247" numberStoredAsText="1"/>
-    <ignoredError sqref="F247" numberStoredAsText="1"/>
     <ignoredError sqref="A248" numberStoredAsText="1"/>
     <ignoredError sqref="B248" numberStoredAsText="1"/>
-    <ignoredError sqref="F248" numberStoredAsText="1"/>
+    <ignoredError sqref="A249" numberStoredAsText="1"/>
+    <ignoredError sqref="B249" numberStoredAsText="1"/>
+    <ignoredError sqref="A250" numberStoredAsText="1"/>
+    <ignoredError sqref="B250" numberStoredAsText="1"/>
+    <ignoredError sqref="A251" numberStoredAsText="1"/>
+    <ignoredError sqref="B251" numberStoredAsText="1"/>
+    <ignoredError sqref="A252" numberStoredAsText="1"/>
+    <ignoredError sqref="B252" numberStoredAsText="1"/>
+    <ignoredError sqref="A253" numberStoredAsText="1"/>
+    <ignoredError sqref="B253" numberStoredAsText="1"/>
+    <ignoredError sqref="A254" numberStoredAsText="1"/>
+    <ignoredError sqref="B254" numberStoredAsText="1"/>
+    <ignoredError sqref="A255" numberStoredAsText="1"/>
+    <ignoredError sqref="B255" numberStoredAsText="1"/>
+    <ignoredError sqref="A256" numberStoredAsText="1"/>
+    <ignoredError sqref="B256" numberStoredAsText="1"/>
+    <ignoredError sqref="C256" numberStoredAsText="1"/>
+    <ignoredError sqref="D256" numberStoredAsText="1"/>
+    <ignoredError sqref="E256" numberStoredAsText="1"/>
+    <ignoredError sqref="F256" numberStoredAsText="1"/>
+    <ignoredError sqref="A257" numberStoredAsText="1"/>
+    <ignoredError sqref="B257" numberStoredAsText="1"/>
+    <ignoredError sqref="A258" numberStoredAsText="1"/>
+    <ignoredError sqref="B258" numberStoredAsText="1"/>
+    <ignoredError sqref="C258" numberStoredAsText="1"/>
+    <ignoredError sqref="D258" numberStoredAsText="1"/>
+    <ignoredError sqref="E258" numberStoredAsText="1"/>
+    <ignoredError sqref="F258" numberStoredAsText="1"/>
+    <ignoredError sqref="A259" numberStoredAsText="1"/>
+    <ignoredError sqref="B259" numberStoredAsText="1"/>
+    <ignoredError sqref="A260" numberStoredAsText="1"/>
+    <ignoredError sqref="B260" numberStoredAsText="1"/>
+    <ignoredError sqref="C260" numberStoredAsText="1"/>
+    <ignoredError sqref="D260" numberStoredAsText="1"/>
+    <ignoredError sqref="E260" numberStoredAsText="1"/>
+    <ignoredError sqref="F260" numberStoredAsText="1"/>
+    <ignoredError sqref="A261" numberStoredAsText="1"/>
+    <ignoredError sqref="B261" numberStoredAsText="1"/>
+    <ignoredError sqref="C261" numberStoredAsText="1"/>
+    <ignoredError sqref="D261" numberStoredAsText="1"/>
+    <ignoredError sqref="E261" numberStoredAsText="1"/>
+    <ignoredError sqref="F261" numberStoredAsText="1"/>
+    <ignoredError sqref="A262" numberStoredAsText="1"/>
+    <ignoredError sqref="B262" numberStoredAsText="1"/>
+    <ignoredError sqref="F262" numberStoredAsText="1"/>
+    <ignoredError sqref="A263" numberStoredAsText="1"/>
+    <ignoredError sqref="B263" numberStoredAsText="1"/>
+    <ignoredError sqref="F263" numberStoredAsText="1"/>
+    <ignoredError sqref="A264" numberStoredAsText="1"/>
+    <ignoredError sqref="B264" numberStoredAsText="1"/>
+    <ignoredError sqref="F264" numberStoredAsText="1"/>
+    <ignoredError sqref="A265" numberStoredAsText="1"/>
+    <ignoredError sqref="B265" numberStoredAsText="1"/>
+    <ignoredError sqref="C265" numberStoredAsText="1"/>
+    <ignoredError sqref="D265" numberStoredAsText="1"/>
+    <ignoredError sqref="E265" numberStoredAsText="1"/>
+    <ignoredError sqref="F265" numberStoredAsText="1"/>
+    <ignoredError sqref="A266" numberStoredAsText="1"/>
+    <ignoredError sqref="B266" numberStoredAsText="1"/>
+    <ignoredError sqref="C266" numberStoredAsText="1"/>
+    <ignoredError sqref="D266" numberStoredAsText="1"/>
+    <ignoredError sqref="E266" numberStoredAsText="1"/>
+    <ignoredError sqref="F266" numberStoredAsText="1"/>
+    <ignoredError sqref="A267" numberStoredAsText="1"/>
+    <ignoredError sqref="B267" numberStoredAsText="1"/>
+    <ignoredError sqref="F267" numberStoredAsText="1"/>
+    <ignoredError sqref="A268" numberStoredAsText="1"/>
+    <ignoredError sqref="B268" numberStoredAsText="1"/>
+    <ignoredError sqref="F268" numberStoredAsText="1"/>
+    <ignoredError sqref="A269" numberStoredAsText="1"/>
+    <ignoredError sqref="B269" numberStoredAsText="1"/>
+    <ignoredError sqref="F269" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>